--- a/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.992226335395367</v>
+      </c>
+      <c r="D2">
+        <v>1.011548267389533</v>
+      </c>
+      <c r="E2">
+        <v>1.000455362402985</v>
+      </c>
+      <c r="F2">
+        <v>1.011560956113954</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.036930660143536</v>
+      </c>
+      <c r="J2">
+        <v>1.014642067770655</v>
+      </c>
+      <c r="K2">
+        <v>1.022849027225633</v>
+      </c>
+      <c r="L2">
+        <v>1.011908356947413</v>
+      </c>
+      <c r="M2">
+        <v>1.022861544219775</v>
+      </c>
+      <c r="N2">
+        <v>1.016082975887962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.006207558337921</v>
+      </c>
+      <c r="D3">
+        <v>1.022822694940877</v>
+      </c>
+      <c r="E3">
+        <v>1.013868281995856</v>
+      </c>
+      <c r="F3">
+        <v>1.024099265249551</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.041461598888527</v>
+      </c>
+      <c r="J3">
+        <v>1.026530417706109</v>
+      </c>
+      <c r="K3">
+        <v>1.033171651264744</v>
+      </c>
+      <c r="L3">
+        <v>1.024326738194421</v>
+      </c>
+      <c r="M3">
+        <v>1.034432804539896</v>
+      </c>
+      <c r="N3">
+        <v>1.027988208643936</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.014780540133678</v>
+      </c>
+      <c r="D4">
+        <v>1.029737881465289</v>
+      </c>
+      <c r="E4">
+        <v>1.022100321334183</v>
+      </c>
+      <c r="F4">
+        <v>1.031795963184994</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.044221027668535</v>
+      </c>
+      <c r="J4">
+        <v>1.033813568824936</v>
+      </c>
+      <c r="K4">
+        <v>1.039490170618638</v>
+      </c>
+      <c r="L4">
+        <v>1.031939135951498</v>
+      </c>
+      <c r="M4">
+        <v>1.041525206148779</v>
+      </c>
+      <c r="N4">
+        <v>1.035281702672741</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.018282597506821</v>
+      </c>
+      <c r="D5">
+        <v>1.032562873773851</v>
+      </c>
+      <c r="E5">
+        <v>1.02546472690151</v>
+      </c>
+      <c r="F5">
+        <v>1.034941781745635</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.045343537465869</v>
+      </c>
+      <c r="J5">
+        <v>1.036787008771769</v>
+      </c>
+      <c r="K5">
+        <v>1.042068399542897</v>
+      </c>
+      <c r="L5">
+        <v>1.035048084015892</v>
+      </c>
+      <c r="M5">
+        <v>1.044421515690061</v>
+      </c>
+      <c r="N5">
+        <v>1.038259365245357</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.01886492237966</v>
+      </c>
+      <c r="D6">
+        <v>1.033032615596699</v>
+      </c>
+      <c r="E6">
+        <v>1.02602425365007</v>
+      </c>
+      <c r="F6">
+        <v>1.035464964160697</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.045529906537287</v>
+      </c>
+      <c r="J6">
+        <v>1.037281329208916</v>
+      </c>
+      <c r="K6">
+        <v>1.042496933992704</v>
+      </c>
+      <c r="L6">
+        <v>1.035564996192245</v>
+      </c>
+      <c r="M6">
+        <v>1.044903054919729</v>
+      </c>
+      <c r="N6">
+        <v>1.038754387674224</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.014827722009188</v>
+      </c>
+      <c r="D7">
+        <v>1.029775941329762</v>
+      </c>
+      <c r="E7">
+        <v>1.022145642450204</v>
+      </c>
+      <c r="F7">
+        <v>1.031838339122365</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.044236169796649</v>
+      </c>
+      <c r="J7">
+        <v>1.033853635878792</v>
+      </c>
+      <c r="K7">
+        <v>1.039524917835654</v>
+      </c>
+      <c r="L7">
+        <v>1.03198102464284</v>
+      </c>
+      <c r="M7">
+        <v>1.041564231024142</v>
+      </c>
+      <c r="N7">
+        <v>1.035321826626409</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9970569729483593</v>
+      </c>
+      <c r="D8">
+        <v>1.015443042796174</v>
+      </c>
+      <c r="E8">
+        <v>1.005087906348856</v>
+      </c>
+      <c r="F8">
+        <v>1.015891022874133</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.03850005117035</v>
+      </c>
+      <c r="J8">
+        <v>1.018750891971163</v>
+      </c>
+      <c r="K8">
+        <v>1.026417813820875</v>
+      </c>
+      <c r="L8">
+        <v>1.016199396970652</v>
+      </c>
+      <c r="M8">
+        <v>1.02685995795848</v>
+      </c>
+      <c r="N8">
+        <v>1.020197635090122</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9614678696811568</v>
+      </c>
+      <c r="D9">
+        <v>0.986775752702873</v>
+      </c>
+      <c r="E9">
+        <v>0.9710027377975127</v>
+      </c>
+      <c r="F9">
+        <v>0.9840458160086817</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.026862464205717</v>
+      </c>
+      <c r="J9">
+        <v>0.9884587242663192</v>
+      </c>
+      <c r="K9">
+        <v>1.000087090914029</v>
+      </c>
+      <c r="L9">
+        <v>0.9845844738447871</v>
+      </c>
+      <c r="M9">
+        <v>0.9974031532896606</v>
+      </c>
+      <c r="N9">
+        <v>0.9898624490325778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9336498050060636</v>
+      </c>
+      <c r="D10">
+        <v>0.9644330264465225</v>
+      </c>
+      <c r="E10">
+        <v>0.9444356407537684</v>
+      </c>
+      <c r="F10">
+        <v>0.9592564594691837</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.017683050197449</v>
+      </c>
+      <c r="J10">
+        <v>0.9647678124228044</v>
+      </c>
+      <c r="K10">
+        <v>0.9794755851298044</v>
+      </c>
+      <c r="L10">
+        <v>0.9598862300063081</v>
+      </c>
+      <c r="M10">
+        <v>0.9744024937893191</v>
+      </c>
+      <c r="N10">
+        <v>0.9661378933768596</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9202158202878601</v>
+      </c>
+      <c r="D11">
+        <v>0.9536719404021252</v>
+      </c>
+      <c r="E11">
+        <v>0.9316312888817848</v>
+      </c>
+      <c r="F11">
+        <v>0.9473223383498169</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.013237661517203</v>
+      </c>
+      <c r="J11">
+        <v>0.953330432190301</v>
+      </c>
+      <c r="K11">
+        <v>0.9695238169876058</v>
+      </c>
+      <c r="L11">
+        <v>0.947968965137993</v>
+      </c>
+      <c r="M11">
+        <v>0.9633110889875721</v>
+      </c>
+      <c r="N11">
+        <v>0.9546842707525405</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9149637297906783</v>
+      </c>
+      <c r="D12">
+        <v>0.9494707758153587</v>
+      </c>
+      <c r="E12">
+        <v>0.926630104591995</v>
+      </c>
+      <c r="F12">
+        <v>0.9426637898387471</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.011498758482042</v>
+      </c>
+      <c r="J12">
+        <v>0.9488602929887571</v>
+      </c>
+      <c r="K12">
+        <v>0.9656345792218721</v>
+      </c>
+      <c r="L12">
+        <v>0.9433122207413476</v>
+      </c>
+      <c r="M12">
+        <v>0.9589785609756866</v>
+      </c>
+      <c r="N12">
+        <v>0.950207783440598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9161032814221157</v>
+      </c>
+      <c r="D13">
+        <v>0.9503820080349029</v>
+      </c>
+      <c r="E13">
+        <v>0.9277149856159778</v>
+      </c>
+      <c r="F13">
+        <v>0.9436742074602557</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.011876074783137</v>
+      </c>
+      <c r="J13">
+        <v>0.9498301055429719</v>
+      </c>
+      <c r="K13">
+        <v>0.966478342451215</v>
+      </c>
+      <c r="L13">
+        <v>0.9443224756294323</v>
+      </c>
+      <c r="M13">
+        <v>0.959918401491674</v>
+      </c>
+      <c r="N13">
+        <v>0.9511789732398787</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9197874150720086</v>
+      </c>
+      <c r="D14">
+        <v>0.9533291272521386</v>
+      </c>
+      <c r="E14">
+        <v>0.9312232481826485</v>
+      </c>
+      <c r="F14">
+        <v>0.9469421929921317</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.013095834551548</v>
+      </c>
+      <c r="J14">
+        <v>0.9529657762523501</v>
+      </c>
+      <c r="K14">
+        <v>0.9692065402276585</v>
+      </c>
+      <c r="L14">
+        <v>0.9475890677574018</v>
+      </c>
+      <c r="M14">
+        <v>0.9629576075529992</v>
+      </c>
+      <c r="N14">
+        <v>0.9543190969613309</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9220206348303276</v>
+      </c>
+      <c r="D15">
+        <v>0.9551164159728851</v>
+      </c>
+      <c r="E15">
+        <v>0.9333505068534114</v>
+      </c>
+      <c r="F15">
+        <v>0.9489241381121225</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.013835127735835</v>
+      </c>
+      <c r="J15">
+        <v>0.9548667399951141</v>
+      </c>
+      <c r="K15">
+        <v>0.9708605284738416</v>
+      </c>
+      <c r="L15">
+        <v>0.9495695236564717</v>
+      </c>
+      <c r="M15">
+        <v>0.9648004173124199</v>
+      </c>
+      <c r="N15">
+        <v>0.956222760290653</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9345080073389308</v>
+      </c>
+      <c r="D16">
+        <v>0.9651211743009279</v>
+      </c>
+      <c r="E16">
+        <v>0.9452542009708408</v>
+      </c>
+      <c r="F16">
+        <v>0.9600197108170569</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.017966852830148</v>
+      </c>
+      <c r="J16">
+        <v>0.965498598454413</v>
+      </c>
+      <c r="K16">
+        <v>0.9801114594037802</v>
+      </c>
+      <c r="L16">
+        <v>0.9606478062502869</v>
+      </c>
+      <c r="M16">
+        <v>0.9751114654763653</v>
+      </c>
+      <c r="N16">
+        <v>0.9668697172084556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.941937424244082</v>
+      </c>
+      <c r="D17">
+        <v>0.97108169257235</v>
+      </c>
+      <c r="E17">
+        <v>0.9523432855929554</v>
+      </c>
+      <c r="F17">
+        <v>0.9666313157950565</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.020422440981207</v>
+      </c>
+      <c r="J17">
+        <v>0.9718254260528176</v>
+      </c>
+      <c r="K17">
+        <v>0.9856165026727313</v>
+      </c>
+      <c r="L17">
+        <v>0.967241900599642</v>
+      </c>
+      <c r="M17">
+        <v>0.9812508580545448</v>
+      </c>
+      <c r="N17">
+        <v>0.9732055296277472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.946141340396397</v>
+      </c>
+      <c r="D18">
+        <v>0.97445690651336</v>
+      </c>
+      <c r="E18">
+        <v>0.9563568582018154</v>
+      </c>
+      <c r="F18">
+        <v>0.9703757159381782</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.021810739969619</v>
+      </c>
+      <c r="J18">
+        <v>0.9754056983242528</v>
+      </c>
+      <c r="K18">
+        <v>0.9887316111436275</v>
+      </c>
+      <c r="L18">
+        <v>0.9709739969722508</v>
+      </c>
+      <c r="M18">
+        <v>0.9847261767858233</v>
+      </c>
+      <c r="N18">
+        <v>0.9767908862964708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9475541085971275</v>
+      </c>
+      <c r="D19">
+        <v>0.975591562203711</v>
+      </c>
+      <c r="E19">
+        <v>0.9577060169725373</v>
+      </c>
+      <c r="F19">
+        <v>0.9716345724212672</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.022277068564986</v>
+      </c>
+      <c r="J19">
+        <v>0.9766089083099987</v>
+      </c>
+      <c r="K19">
+        <v>0.9897784636862168</v>
+      </c>
+      <c r="L19">
+        <v>0.972228328879239</v>
+      </c>
+      <c r="M19">
+        <v>0.9858942931527152</v>
+      </c>
+      <c r="N19">
+        <v>0.9779958049784063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9411540396511786</v>
+      </c>
+      <c r="D20">
+        <v>0.9704529260801248</v>
+      </c>
+      <c r="E20">
+        <v>0.9515955479656018</v>
+      </c>
+      <c r="F20">
+        <v>0.9659338160826266</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.020163633975304</v>
+      </c>
+      <c r="J20">
+        <v>0.9711582711166042</v>
+      </c>
+      <c r="K20">
+        <v>0.9850360144614839</v>
+      </c>
+      <c r="L20">
+        <v>0.9665465020336317</v>
+      </c>
+      <c r="M20">
+        <v>0.9806033485875916</v>
+      </c>
+      <c r="N20">
+        <v>0.9725374272550005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9187103035723461</v>
+      </c>
+      <c r="D21">
+        <v>0.952467315547881</v>
+      </c>
+      <c r="E21">
+        <v>0.930197417201113</v>
+      </c>
+      <c r="F21">
+        <v>0.9459865385638752</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.012739236656456</v>
+      </c>
+      <c r="J21">
+        <v>0.9520489706366635</v>
+      </c>
+      <c r="K21">
+        <v>0.9684088597780004</v>
+      </c>
+      <c r="L21">
+        <v>0.9466339577103858</v>
+      </c>
+      <c r="M21">
+        <v>0.9620689365265949</v>
+      </c>
+      <c r="N21">
+        <v>0.9534009893765107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.903037417690595</v>
+      </c>
+      <c r="D22">
+        <v>0.9399444394368773</v>
+      </c>
+      <c r="E22">
+        <v>0.9152838070875182</v>
+      </c>
+      <c r="F22">
+        <v>0.9321010438096691</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.007549673219653</v>
+      </c>
+      <c r="J22">
+        <v>0.9387134520627841</v>
+      </c>
+      <c r="K22">
+        <v>0.9568074849529483</v>
+      </c>
+      <c r="L22">
+        <v>0.9327435564602353</v>
+      </c>
+      <c r="M22">
+        <v>0.9491492786169855</v>
+      </c>
+      <c r="N22">
+        <v>0.9400465328366512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9115181994736238</v>
+      </c>
+      <c r="D23">
+        <v>0.9467166213945511</v>
+      </c>
+      <c r="E23">
+        <v>0.9233506627472591</v>
+      </c>
+      <c r="F23">
+        <v>0.93960991359277</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.010357861451497</v>
+      </c>
+      <c r="J23">
+        <v>0.9459282682989171</v>
+      </c>
+      <c r="K23">
+        <v>0.9630837206362157</v>
+      </c>
+      <c r="L23">
+        <v>0.9402580648590078</v>
+      </c>
+      <c r="M23">
+        <v>0.956137548625438</v>
+      </c>
+      <c r="N23">
+        <v>0.9472715949393906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9415084139656734</v>
+      </c>
+      <c r="D24">
+        <v>0.9707373492433428</v>
+      </c>
+      <c r="E24">
+        <v>0.9519337899813708</v>
+      </c>
+      <c r="F24">
+        <v>0.9662493292062302</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.020280712507786</v>
+      </c>
+      <c r="J24">
+        <v>0.9714600666815618</v>
+      </c>
+      <c r="K24">
+        <v>0.9852986057143763</v>
+      </c>
+      <c r="L24">
+        <v>0.9668610721247534</v>
+      </c>
+      <c r="M24">
+        <v>0.9808962538353071</v>
+      </c>
+      <c r="N24">
+        <v>0.9728396514042766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9712803996445155</v>
+      </c>
+      <c r="D25">
+        <v>0.994672442796815</v>
+      </c>
+      <c r="E25">
+        <v>0.9803901518916553</v>
+      </c>
+      <c r="F25">
+        <v>0.9928125336593012</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.030086411249597</v>
+      </c>
+      <c r="J25">
+        <v>0.9968145150312518</v>
+      </c>
+      <c r="K25">
+        <v>1.00735402907106</v>
+      </c>
+      <c r="L25">
+        <v>0.9933007096753582</v>
+      </c>
+      <c r="M25">
+        <v>1.00552345997939</v>
+      </c>
+      <c r="N25">
+        <v>0.9982301059788191</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.992226335395367</v>
+        <v>0.9696959157794687</v>
       </c>
       <c r="D2">
-        <v>1.011548267389533</v>
+        <v>0.9939951862720787</v>
       </c>
       <c r="E2">
-        <v>1.000455362402985</v>
+        <v>0.9780916880824739</v>
       </c>
       <c r="F2">
-        <v>1.011560956113954</v>
+        <v>0.944867570897635</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036930660143536</v>
+        <v>1.032062268538059</v>
       </c>
       <c r="J2">
-        <v>1.014642067770655</v>
+        <v>0.992822403067915</v>
       </c>
       <c r="K2">
-        <v>1.022849027225633</v>
+        <v>1.00553881648987</v>
       </c>
       <c r="L2">
-        <v>1.011908356947413</v>
+        <v>0.9898649204885295</v>
       </c>
       <c r="M2">
-        <v>1.022861544219775</v>
+        <v>0.9571524500563275</v>
       </c>
       <c r="N2">
-        <v>1.016082975887962</v>
+        <v>1.000811535286587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006207558337921</v>
+        <v>0.9772899821784498</v>
       </c>
       <c r="D3">
-        <v>1.022822694940877</v>
+        <v>0.9993599118530632</v>
       </c>
       <c r="E3">
-        <v>1.013868281995856</v>
+        <v>0.9851234111126157</v>
       </c>
       <c r="F3">
-        <v>1.024099265249551</v>
+        <v>0.9554711919144945</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041461598888527</v>
+        <v>1.033852995713634</v>
       </c>
       <c r="J3">
-        <v>1.026530417706109</v>
+        <v>0.998419491157341</v>
       </c>
       <c r="K3">
-        <v>1.033171651264744</v>
+        <v>1.010000989283383</v>
       </c>
       <c r="L3">
-        <v>1.024326738194421</v>
+        <v>0.9959502473097782</v>
       </c>
       <c r="M3">
-        <v>1.034432804539896</v>
+        <v>0.9667074198122936</v>
       </c>
       <c r="N3">
-        <v>1.027988208643936</v>
+        <v>1.002769337096948</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014780540133678</v>
+        <v>0.982036444417962</v>
       </c>
       <c r="D4">
-        <v>1.029737881465289</v>
+        <v>1.002715769845212</v>
       </c>
       <c r="E4">
-        <v>1.022100321334183</v>
+        <v>0.9895243465594629</v>
       </c>
       <c r="F4">
-        <v>1.031795963184994</v>
+        <v>0.9620818472935985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044221027668535</v>
+        <v>1.03495830737479</v>
       </c>
       <c r="J4">
-        <v>1.033813568824936</v>
+        <v>1.001911095810844</v>
       </c>
       <c r="K4">
-        <v>1.039490170618638</v>
+        <v>1.012781528054746</v>
       </c>
       <c r="L4">
-        <v>1.031939135951498</v>
+        <v>0.9997508696987378</v>
       </c>
       <c r="M4">
-        <v>1.041525206148779</v>
+        <v>0.9726605302597451</v>
       </c>
       <c r="N4">
-        <v>1.035281702672741</v>
+        <v>1.003989589431358</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018282597506821</v>
+        <v>0.9839943433491207</v>
       </c>
       <c r="D5">
-        <v>1.032562873773851</v>
+        <v>1.004100567073744</v>
       </c>
       <c r="E5">
-        <v>1.02546472690151</v>
+        <v>0.9913410760597364</v>
       </c>
       <c r="F5">
-        <v>1.034941781745635</v>
+        <v>0.9648053761893188</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045343537465869</v>
+        <v>1.035410831261812</v>
       </c>
       <c r="J5">
-        <v>1.036787008771769</v>
+        <v>1.003349732045298</v>
       </c>
       <c r="K5">
-        <v>1.042068399542897</v>
+        <v>1.013926387781266</v>
       </c>
       <c r="L5">
-        <v>1.035048084015892</v>
+        <v>1.001317886920984</v>
       </c>
       <c r="M5">
-        <v>1.044421515690061</v>
+        <v>0.9751121786195116</v>
       </c>
       <c r="N5">
-        <v>1.038259365245357</v>
+        <v>1.004492080874971</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01886492237966</v>
+        <v>0.9843209530805117</v>
       </c>
       <c r="D6">
-        <v>1.033032615596699</v>
+        <v>1.004331600294838</v>
       </c>
       <c r="E6">
-        <v>1.02602425365007</v>
+        <v>0.9916442144638448</v>
       </c>
       <c r="F6">
-        <v>1.035464964160697</v>
+        <v>0.9652595277278859</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045529906537287</v>
+        <v>1.035486116903866</v>
       </c>
       <c r="J6">
-        <v>1.037281329208916</v>
+        <v>1.00358962295152</v>
       </c>
       <c r="K6">
-        <v>1.042496933992704</v>
+        <v>1.014117243182117</v>
       </c>
       <c r="L6">
-        <v>1.035564996192245</v>
+        <v>1.001579247198323</v>
       </c>
       <c r="M6">
-        <v>1.044903054919729</v>
+        <v>0.9755209343131235</v>
       </c>
       <c r="N6">
-        <v>1.038754387674224</v>
+        <v>1.004575853133666</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014827722009188</v>
+        <v>0.9820627501673169</v>
       </c>
       <c r="D7">
-        <v>1.029775941329762</v>
+        <v>1.002734373710442</v>
       </c>
       <c r="E7">
-        <v>1.022145642450204</v>
+        <v>0.9895487503007659</v>
       </c>
       <c r="F7">
-        <v>1.031838339122365</v>
+        <v>0.9621184521994305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044236169796649</v>
+        <v>1.034964400964391</v>
       </c>
       <c r="J7">
-        <v>1.033853635878792</v>
+        <v>1.001930431431634</v>
       </c>
       <c r="K7">
-        <v>1.039524917835654</v>
+        <v>1.012796918486911</v>
       </c>
       <c r="L7">
-        <v>1.03198102464284</v>
+        <v>0.999771926610679</v>
       </c>
       <c r="M7">
-        <v>1.041564231024142</v>
+        <v>0.9726934849880813</v>
       </c>
       <c r="N7">
-        <v>1.035321826626409</v>
+        <v>1.003996344207163</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9970569729483593</v>
+        <v>0.972298658519936</v>
       </c>
       <c r="D8">
-        <v>1.015443042796174</v>
+        <v>0.9958331728782991</v>
       </c>
       <c r="E8">
-        <v>1.005087906348856</v>
+        <v>0.9805003928829372</v>
       </c>
       <c r="F8">
-        <v>1.015891022874133</v>
+        <v>0.948505816023012</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03850005117035</v>
+        <v>1.032678916704888</v>
       </c>
       <c r="J8">
-        <v>1.018750891971163</v>
+        <v>0.994742113984147</v>
       </c>
       <c r="K8">
-        <v>1.026417813820875</v>
+        <v>1.007069883893948</v>
       </c>
       <c r="L8">
-        <v>1.016199396970652</v>
+        <v>0.9919511417505185</v>
       </c>
       <c r="M8">
-        <v>1.02685995795848</v>
+        <v>0.9604316437355692</v>
       </c>
       <c r="N8">
-        <v>1.020197635090122</v>
+        <v>1.001483239410115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9614678696811568</v>
+        <v>0.9536796105459063</v>
       </c>
       <c r="D9">
-        <v>0.986775752702873</v>
+        <v>0.9827040885327124</v>
       </c>
       <c r="E9">
-        <v>0.9710027377975127</v>
+        <v>0.9632986279024297</v>
       </c>
       <c r="F9">
-        <v>0.9840458160086817</v>
+        <v>0.922370504555783</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026862464205717</v>
+        <v>1.028209931016108</v>
       </c>
       <c r="J9">
-        <v>0.9884587242663192</v>
+        <v>0.9809812116502787</v>
       </c>
       <c r="K9">
-        <v>1.000087090914029</v>
+        <v>0.996084154658667</v>
       </c>
       <c r="L9">
-        <v>0.9845844738447871</v>
+        <v>0.9770166156694537</v>
       </c>
       <c r="M9">
-        <v>0.9974031532896606</v>
+        <v>0.9368625506708067</v>
       </c>
       <c r="N9">
-        <v>0.9898624490325778</v>
+        <v>0.9966649118055266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9336498050060636</v>
+        <v>0.9401016284622351</v>
       </c>
       <c r="D10">
-        <v>0.9644330264465225</v>
+        <v>0.9731634176076278</v>
       </c>
       <c r="E10">
-        <v>0.9444356407537684</v>
+        <v>0.9507959925733254</v>
       </c>
       <c r="F10">
-        <v>0.9592564594691837</v>
+        <v>0.9031211889829562</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017683050197449</v>
+        <v>1.024880291324957</v>
       </c>
       <c r="J10">
-        <v>0.9647678124228044</v>
+        <v>0.9709112319093821</v>
       </c>
       <c r="K10">
-        <v>0.9794755851298044</v>
+        <v>0.9880347307879863</v>
       </c>
       <c r="L10">
-        <v>0.9598862300063081</v>
+        <v>0.9661143471119752</v>
       </c>
       <c r="M10">
-        <v>0.9744024937893191</v>
+        <v>0.9194915676192037</v>
       </c>
       <c r="N10">
-        <v>0.9661378933768596</v>
+        <v>0.9931361905797842</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9202158202878601</v>
+        <v>0.933886099977815</v>
       </c>
       <c r="D11">
-        <v>0.9536719404021252</v>
+        <v>0.9688073785680744</v>
       </c>
       <c r="E11">
-        <v>0.9316312888817848</v>
+        <v>0.9450841846240097</v>
       </c>
       <c r="F11">
-        <v>0.9473223383498169</v>
+        <v>0.8942442069298695</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.013237661517203</v>
+        <v>1.023340618856766</v>
       </c>
       <c r="J11">
-        <v>0.953330432190301</v>
+        <v>0.966293637081804</v>
       </c>
       <c r="K11">
-        <v>0.9695238169876058</v>
+        <v>0.9843425320608473</v>
       </c>
       <c r="L11">
-        <v>0.947968965137993</v>
+        <v>0.9611217642695593</v>
       </c>
       <c r="M11">
-        <v>0.9633110889875721</v>
+        <v>0.9114800392284429</v>
       </c>
       <c r="N11">
-        <v>0.9546842707525405</v>
+        <v>0.991518038064525</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9149637297906783</v>
+        <v>0.9315206433043496</v>
       </c>
       <c r="D12">
-        <v>0.9494707758153587</v>
+        <v>0.9671516222941994</v>
       </c>
       <c r="E12">
-        <v>0.926630104591995</v>
+        <v>0.9429122997663758</v>
       </c>
       <c r="F12">
-        <v>0.9426637898387471</v>
+        <v>0.8908538872031928</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011498758482042</v>
+        <v>1.0227524621358</v>
       </c>
       <c r="J12">
-        <v>0.9488602929887571</v>
+        <v>0.9645351470251532</v>
       </c>
       <c r="K12">
-        <v>0.9656345792218721</v>
+        <v>0.9829364154755164</v>
       </c>
       <c r="L12">
-        <v>0.9433122207413476</v>
+        <v>0.9592215082875484</v>
       </c>
       <c r="M12">
-        <v>0.9589785609756866</v>
+        <v>0.9084203632602449</v>
       </c>
       <c r="N12">
-        <v>0.950207783440598</v>
+        <v>0.9909018577448147</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9161032814221157</v>
+        <v>0.9320307216934541</v>
       </c>
       <c r="D13">
-        <v>0.9503820080349029</v>
+        <v>0.9675085662681501</v>
       </c>
       <c r="E13">
-        <v>0.9277149856159778</v>
+        <v>0.9433805501836965</v>
       </c>
       <c r="F13">
-        <v>0.9436742074602557</v>
+        <v>0.8915855438467485</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011876074783137</v>
+        <v>1.022879387164528</v>
       </c>
       <c r="J13">
-        <v>0.9498301055429719</v>
+        <v>0.9649143934362739</v>
       </c>
       <c r="K13">
-        <v>0.966478342451215</v>
+        <v>0.9832396664110054</v>
       </c>
       <c r="L13">
-        <v>0.9443224756294323</v>
+        <v>0.9596312812551288</v>
       </c>
       <c r="M13">
-        <v>0.959918401491674</v>
+        <v>0.9090806555844878</v>
       </c>
       <c r="N13">
-        <v>0.9511789732398787</v>
+        <v>0.9910347435360727</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9197874150720086</v>
+        <v>0.9336917680478746</v>
       </c>
       <c r="D14">
-        <v>0.9533291272521386</v>
+        <v>0.9686713083101314</v>
       </c>
       <c r="E14">
-        <v>0.9312232481826485</v>
+        <v>0.9449057166584715</v>
       </c>
       <c r="F14">
-        <v>0.9469421929921317</v>
+        <v>0.893965935119529</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013095834551548</v>
+        <v>1.023292343150657</v>
       </c>
       <c r="J14">
-        <v>0.9529657762523501</v>
+        <v>0.9661491933416153</v>
       </c>
       <c r="K14">
-        <v>0.9692065402276585</v>
+        <v>0.9842270325325947</v>
       </c>
       <c r="L14">
-        <v>0.9475890677574018</v>
+        <v>0.9609656545028011</v>
       </c>
       <c r="M14">
-        <v>0.9629576075529992</v>
+        <v>0.9112289025009783</v>
       </c>
       <c r="N14">
-        <v>0.9543190969613309</v>
+        <v>0.9914674231416115</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9220206348303276</v>
+        <v>0.9347074701217963</v>
       </c>
       <c r="D15">
-        <v>0.9551164159728851</v>
+        <v>0.9693825822604987</v>
       </c>
       <c r="E15">
-        <v>0.9333505068534114</v>
+        <v>0.9458385803142847</v>
       </c>
       <c r="F15">
-        <v>0.9489241381121225</v>
+        <v>0.8954198601127702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013835127735835</v>
+        <v>1.023544574204378</v>
       </c>
       <c r="J15">
-        <v>0.9548667399951141</v>
+        <v>0.9669041010604178</v>
       </c>
       <c r="K15">
-        <v>0.9708605284738416</v>
+        <v>0.9848306680612751</v>
       </c>
       <c r="L15">
-        <v>0.9495695236564717</v>
+        <v>0.9617815748324688</v>
       </c>
       <c r="M15">
-        <v>0.9648004173124199</v>
+        <v>0.9125410568770461</v>
       </c>
       <c r="N15">
-        <v>0.956222760290653</v>
+        <v>0.9917319548284068</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9345080073389308</v>
+        <v>0.9405065436495558</v>
       </c>
       <c r="D16">
-        <v>0.9651211743009279</v>
+        <v>0.973447454960586</v>
       </c>
       <c r="E16">
-        <v>0.9452542009708408</v>
+        <v>0.9511683405311019</v>
       </c>
       <c r="F16">
-        <v>0.9600197108170569</v>
+        <v>0.9036979700454171</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017966852830148</v>
+        <v>1.024980285860007</v>
       </c>
       <c r="J16">
-        <v>0.965498598454413</v>
+        <v>0.9712118879807473</v>
       </c>
       <c r="K16">
-        <v>0.9801114594037802</v>
+        <v>0.9882751206332009</v>
       </c>
       <c r="L16">
-        <v>0.9606478062502869</v>
+        <v>0.9664395590289609</v>
       </c>
       <c r="M16">
-        <v>0.9751114654763653</v>
+        <v>0.9200121177943476</v>
       </c>
       <c r="N16">
-        <v>0.9668697172084556</v>
+        <v>0.9932415536702287</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.941937424244082</v>
+        <v>0.9440500903707085</v>
       </c>
       <c r="D17">
-        <v>0.97108169257235</v>
+        <v>0.9759344667906082</v>
       </c>
       <c r="E17">
-        <v>0.9523432855929554</v>
+        <v>0.9544281818976165</v>
       </c>
       <c r="F17">
-        <v>0.9666313157950565</v>
+        <v>0.9087380400670912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020422440981207</v>
+        <v>1.025853649345778</v>
       </c>
       <c r="J17">
-        <v>0.9718254260528176</v>
+        <v>0.9738421459763194</v>
       </c>
       <c r="K17">
-        <v>0.9856165026727313</v>
+        <v>0.9903780328281548</v>
       </c>
       <c r="L17">
-        <v>0.967241900599642</v>
+        <v>0.9692853907380143</v>
       </c>
       <c r="M17">
-        <v>0.9812508580545448</v>
+        <v>0.9245607639273848</v>
       </c>
       <c r="N17">
-        <v>0.9732055296277472</v>
+        <v>0.9941633116034134</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.946141340396397</v>
+        <v>0.9460850199778964</v>
       </c>
       <c r="D18">
-        <v>0.97445690651336</v>
+        <v>0.9773637028318858</v>
       </c>
       <c r="E18">
-        <v>0.9563568582018154</v>
+        <v>0.9563012490784653</v>
       </c>
       <c r="F18">
-        <v>0.9703757159381782</v>
+        <v>0.9116264358710716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021810739969619</v>
+        <v>1.026353737499966</v>
       </c>
       <c r="J18">
-        <v>0.9754056983242528</v>
+        <v>0.9753518680849105</v>
       </c>
       <c r="K18">
-        <v>0.9887316111436275</v>
+        <v>0.9915849530541625</v>
       </c>
       <c r="L18">
-        <v>0.9709739969722508</v>
+        <v>0.9709194660979129</v>
       </c>
       <c r="M18">
-        <v>0.9847261767858233</v>
+        <v>0.9271674450815875</v>
       </c>
       <c r="N18">
-        <v>0.9767908862964708</v>
+        <v>0.9946923752390475</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9475541085971275</v>
+        <v>0.9467736285189532</v>
       </c>
       <c r="D19">
-        <v>0.975591562203711</v>
+        <v>0.9778475149532783</v>
       </c>
       <c r="E19">
-        <v>0.9577060169725373</v>
+        <v>0.9569352599187783</v>
       </c>
       <c r="F19">
-        <v>0.9716345724212672</v>
+        <v>0.9126029028160922</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022277068564986</v>
+        <v>1.026522714581333</v>
       </c>
       <c r="J19">
-        <v>0.9766089083099987</v>
+        <v>0.9758626231864794</v>
       </c>
       <c r="K19">
-        <v>0.9897784636862168</v>
+        <v>0.9919932440724342</v>
       </c>
       <c r="L19">
-        <v>0.972228328879239</v>
+        <v>0.9714723950323957</v>
       </c>
       <c r="M19">
-        <v>0.9858942931527152</v>
+        <v>0.9280486536529529</v>
       </c>
       <c r="N19">
-        <v>0.9779958049784063</v>
+        <v>0.9948713599283362</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9411540396511786</v>
+        <v>0.9436732486802381</v>
       </c>
       <c r="D20">
-        <v>0.9704529260801248</v>
+        <v>0.975669873316546</v>
       </c>
       <c r="E20">
-        <v>0.9515955479656018</v>
+        <v>0.9540813999124171</v>
       </c>
       <c r="F20">
-        <v>0.9659338160826266</v>
+        <v>0.9082026804007922</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020163633975304</v>
+        <v>1.025760921026263</v>
       </c>
       <c r="J20">
-        <v>0.9711582711166042</v>
+        <v>0.9735625055102549</v>
       </c>
       <c r="K20">
-        <v>0.9850360144614839</v>
+        <v>0.9901544691210679</v>
       </c>
       <c r="L20">
-        <v>0.9665465020336317</v>
+        <v>0.9689827666485812</v>
       </c>
       <c r="M20">
-        <v>0.9806033485875916</v>
+        <v>0.9240776112234373</v>
       </c>
       <c r="N20">
-        <v>0.9725374272550005</v>
+        <v>0.9940653138798325</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9187103035723461</v>
+        <v>0.9332042531891214</v>
       </c>
       <c r="D21">
-        <v>0.952467315547881</v>
+        <v>0.9683299865968005</v>
       </c>
       <c r="E21">
-        <v>0.930197417201113</v>
+        <v>0.9444580298190415</v>
       </c>
       <c r="F21">
-        <v>0.9459865385638752</v>
+        <v>0.8932676420027065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012739236656456</v>
+        <v>1.023171200409458</v>
       </c>
       <c r="J21">
-        <v>0.9520489706366635</v>
+        <v>0.9657868129451469</v>
       </c>
       <c r="K21">
-        <v>0.9684088597780004</v>
+        <v>0.9839372672077412</v>
       </c>
       <c r="L21">
-        <v>0.9466339577103858</v>
+        <v>0.9605740231995717</v>
       </c>
       <c r="M21">
-        <v>0.9620689365265949</v>
+        <v>0.9105987045089228</v>
       </c>
       <c r="N21">
-        <v>0.9534009893765107</v>
+        <v>0.9913404414718988</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.903037417690595</v>
+        <v>0.9262897513369303</v>
       </c>
       <c r="D22">
-        <v>0.9399444394368773</v>
+        <v>0.9634942941996748</v>
       </c>
       <c r="E22">
-        <v>0.9152838070875182</v>
+        <v>0.9381131037715152</v>
       </c>
       <c r="F22">
-        <v>0.9321010438096691</v>
+        <v>0.8833316039526977</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007549673219653</v>
+        <v>1.02144791270545</v>
       </c>
       <c r="J22">
-        <v>0.9387134520627841</v>
+        <v>0.9606443523494412</v>
       </c>
       <c r="K22">
-        <v>0.9568074849529483</v>
+        <v>0.9798253641480498</v>
       </c>
       <c r="L22">
-        <v>0.9327435564602353</v>
+        <v>0.9550190175647413</v>
       </c>
       <c r="M22">
-        <v>0.9491492786169855</v>
+        <v>0.9016321871822401</v>
       </c>
       <c r="N22">
-        <v>0.9400465328366512</v>
+        <v>0.9895386781067407</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9115181994736238</v>
+        <v>0.9299891492599558</v>
       </c>
       <c r="D23">
-        <v>0.9467166213945511</v>
+        <v>0.9660802346252199</v>
       </c>
       <c r="E23">
-        <v>0.9233506627472591</v>
+        <v>0.9415066793295824</v>
       </c>
       <c r="F23">
-        <v>0.93960991359277</v>
+        <v>0.888655158204513</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010357861451497</v>
+        <v>1.022371061561501</v>
       </c>
       <c r="J23">
-        <v>0.9459282682989171</v>
+        <v>0.9633963029399242</v>
       </c>
       <c r="K23">
-        <v>0.9630837206362157</v>
+        <v>0.9820257845969355</v>
       </c>
       <c r="L23">
-        <v>0.9402580648590078</v>
+        <v>0.9579911513081945</v>
       </c>
       <c r="M23">
-        <v>0.956137548625438</v>
+        <v>0.9064361294634838</v>
       </c>
       <c r="N23">
-        <v>0.9472715949393906</v>
+        <v>0.9905028256763621</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9415084139656734</v>
+        <v>0.9438436255294123</v>
       </c>
       <c r="D24">
-        <v>0.9707373492433428</v>
+        <v>0.9757894975468151</v>
       </c>
       <c r="E24">
-        <v>0.9519337899813708</v>
+        <v>0.9542381829488518</v>
       </c>
       <c r="F24">
-        <v>0.9662493292062302</v>
+        <v>0.9084447443514673</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020280712507786</v>
+        <v>1.025802849680923</v>
       </c>
       <c r="J24">
-        <v>0.9714600666815618</v>
+        <v>0.9736889382533234</v>
       </c>
       <c r="K24">
-        <v>0.9852986057143763</v>
+        <v>0.9902555484659094</v>
       </c>
       <c r="L24">
-        <v>0.9668610721247534</v>
+        <v>0.9691195889677359</v>
       </c>
       <c r="M24">
-        <v>0.9808962538353071</v>
+        <v>0.9242960699753613</v>
       </c>
       <c r="N24">
-        <v>0.9728396514042766</v>
+        <v>0.9941096212380529</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9712803996445155</v>
+        <v>0.9586807724778255</v>
       </c>
       <c r="D25">
-        <v>0.994672442796815</v>
+        <v>0.9862258953664105</v>
       </c>
       <c r="E25">
-        <v>0.9803901518916553</v>
+        <v>0.9679124978204926</v>
       </c>
       <c r="F25">
-        <v>0.9928125336593012</v>
+        <v>0.9294171354486774</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030086411249597</v>
+        <v>1.029422625137639</v>
       </c>
       <c r="J25">
-        <v>0.9968145150312518</v>
+        <v>0.9846834519875771</v>
       </c>
       <c r="K25">
-        <v>1.00735402907106</v>
+        <v>0.9990418674268571</v>
       </c>
       <c r="L25">
-        <v>0.9933007096753582</v>
+        <v>0.9810302293384646</v>
       </c>
       <c r="M25">
-        <v>1.00552345997939</v>
+        <v>0.9432198011584638</v>
       </c>
       <c r="N25">
-        <v>0.9982301059788191</v>
+        <v>0.997961875532745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9696959157794687</v>
+        <v>1.021703328107251</v>
       </c>
       <c r="D2">
-        <v>0.9939951862720787</v>
+        <v>1.025682068568814</v>
       </c>
       <c r="E2">
-        <v>0.9780916880824739</v>
+        <v>1.025323746927289</v>
       </c>
       <c r="F2">
-        <v>0.944867570897635</v>
+        <v>1.020138785652877</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032062268538059</v>
+        <v>1.027792440572788</v>
       </c>
       <c r="J2">
-        <v>0.992822403067915</v>
+        <v>1.026893301106865</v>
       </c>
       <c r="K2">
-        <v>1.00553881648987</v>
+        <v>1.028506925652289</v>
       </c>
       <c r="L2">
-        <v>0.9898649204885295</v>
+        <v>1.028149652795205</v>
       </c>
       <c r="M2">
-        <v>0.9571524500563275</v>
+        <v>1.022979957318763</v>
       </c>
       <c r="N2">
-        <v>1.000811535286587</v>
+        <v>1.01288847942797</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9772899821784498</v>
+        <v>1.023158140410001</v>
       </c>
       <c r="D3">
-        <v>0.9993599118530632</v>
+        <v>1.026715445042946</v>
       </c>
       <c r="E3">
-        <v>0.9851234111126157</v>
+        <v>1.026726601252953</v>
       </c>
       <c r="F3">
-        <v>0.9554711919144945</v>
+        <v>1.022240355144684</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033852995713634</v>
+        <v>1.028046694830089</v>
       </c>
       <c r="J3">
-        <v>0.998419491157341</v>
+        <v>1.027983218889189</v>
       </c>
       <c r="K3">
-        <v>1.010000989283383</v>
+        <v>1.029347043456439</v>
       </c>
       <c r="L3">
-        <v>0.9959502473097782</v>
+        <v>1.02935816940541</v>
       </c>
       <c r="M3">
-        <v>0.9667074198122936</v>
+        <v>1.024884149848731</v>
       </c>
       <c r="N3">
-        <v>1.002769337096948</v>
+        <v>1.013261333857136</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.982036444417962</v>
+        <v>1.024097285015622</v>
       </c>
       <c r="D4">
-        <v>1.002715769845212</v>
+        <v>1.02738210194127</v>
       </c>
       <c r="E4">
-        <v>0.9895243465594629</v>
+        <v>1.027632529772037</v>
       </c>
       <c r="F4">
-        <v>0.9620818472935985</v>
+        <v>1.023597449895691</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03495830737479</v>
+        <v>1.028209022641972</v>
       </c>
       <c r="J4">
-        <v>1.001911095810844</v>
+        <v>1.028685910111212</v>
       </c>
       <c r="K4">
-        <v>1.012781528054746</v>
+        <v>1.029888057574872</v>
       </c>
       <c r="L4">
-        <v>0.9997508696987378</v>
+        <v>1.030137840757873</v>
       </c>
       <c r="M4">
-        <v>0.9726605302597451</v>
+        <v>1.026113189372571</v>
       </c>
       <c r="N4">
-        <v>1.003989589431358</v>
+        <v>1.013501418083647</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9839943433491207</v>
+        <v>1.024491580937568</v>
       </c>
       <c r="D5">
-        <v>1.004100567073744</v>
+        <v>1.027661890065076</v>
       </c>
       <c r="E5">
-        <v>0.9913410760597364</v>
+        <v>1.028012957350424</v>
       </c>
       <c r="F5">
-        <v>0.9648053761893188</v>
+        <v>1.024167331847763</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035410831261812</v>
+        <v>1.02827674265516</v>
       </c>
       <c r="J5">
-        <v>1.003349732045298</v>
+        <v>1.028980716818536</v>
       </c>
       <c r="K5">
-        <v>1.013926387781266</v>
+        <v>1.030114883612431</v>
       </c>
       <c r="L5">
-        <v>1.001317886920984</v>
+        <v>1.03046506755829</v>
       </c>
       <c r="M5">
-        <v>0.9751121786195116</v>
+        <v>1.026629153822062</v>
       </c>
       <c r="N5">
-        <v>1.004492080874971</v>
+        <v>1.013602070110541</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9843209530805117</v>
+        <v>1.02455775472906</v>
       </c>
       <c r="D6">
-        <v>1.004331600294838</v>
+        <v>1.027708840073896</v>
       </c>
       <c r="E6">
-        <v>0.9916442144638448</v>
+        <v>1.028076808166975</v>
       </c>
       <c r="F6">
-        <v>0.9652595277278859</v>
+        <v>1.024262980553591</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035486116903866</v>
+        <v>1.028288082558359</v>
       </c>
       <c r="J6">
-        <v>1.00358962295152</v>
+        <v>1.029030180928823</v>
       </c>
       <c r="K6">
-        <v>1.014117243182117</v>
+        <v>1.030152932727725</v>
       </c>
       <c r="L6">
-        <v>1.001579247198323</v>
+        <v>1.030519978539362</v>
       </c>
       <c r="M6">
-        <v>0.9755209343131235</v>
+        <v>1.026715744615017</v>
       </c>
       <c r="N6">
-        <v>1.004575853133666</v>
+        <v>1.013618953718345</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9820627501673169</v>
+        <v>1.024102555649716</v>
       </c>
       <c r="D7">
-        <v>1.002734373710442</v>
+        <v>1.027385842340759</v>
       </c>
       <c r="E7">
-        <v>0.9895487503007659</v>
+        <v>1.027637614721928</v>
       </c>
       <c r="F7">
-        <v>0.9621184521994305</v>
+        <v>1.023605067178698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034964400964391</v>
+        <v>1.028209929571007</v>
       </c>
       <c r="J7">
-        <v>1.001930431431634</v>
+        <v>1.028689851699278</v>
       </c>
       <c r="K7">
-        <v>1.012796918486911</v>
+        <v>1.029891090850111</v>
       </c>
       <c r="L7">
-        <v>0.999771926610679</v>
+        <v>1.030142215317694</v>
       </c>
       <c r="M7">
-        <v>0.9726934849880813</v>
+        <v>1.026120086536078</v>
       </c>
       <c r="N7">
-        <v>1.003996344207163</v>
+        <v>1.013502764095653</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.972298658519936</v>
+        <v>1.022195453727851</v>
       </c>
       <c r="D8">
-        <v>0.9958331728782991</v>
+        <v>1.026031722128416</v>
       </c>
       <c r="E8">
-        <v>0.9805003928829372</v>
+        <v>1.025798228770371</v>
       </c>
       <c r="F8">
-        <v>0.948505816023012</v>
+        <v>1.020849604943952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032678916704888</v>
+        <v>1.027878822063897</v>
       </c>
       <c r="J8">
-        <v>0.994742113984147</v>
+        <v>1.027262178399271</v>
       </c>
       <c r="K8">
-        <v>1.007069883893948</v>
+        <v>1.028791388857837</v>
       </c>
       <c r="L8">
-        <v>0.9919511417505185</v>
+        <v>1.028558561974371</v>
       </c>
       <c r="M8">
-        <v>0.9604316437355692</v>
+        <v>1.023624141216134</v>
       </c>
       <c r="N8">
-        <v>1.001483239410115</v>
+        <v>1.013014732665672</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9536796105459063</v>
+        <v>1.018817467339376</v>
       </c>
       <c r="D9">
-        <v>0.9827040885327124</v>
+        <v>1.023629948871508</v>
       </c>
       <c r="E9">
-        <v>0.9632986279024297</v>
+        <v>1.022542710133389</v>
       </c>
       <c r="F9">
-        <v>0.922370504555783</v>
+        <v>1.015972062995973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028209931016108</v>
+        <v>1.027278487537563</v>
       </c>
       <c r="J9">
-        <v>0.9809812116502787</v>
+        <v>1.024726487939678</v>
       </c>
       <c r="K9">
-        <v>0.996084154658667</v>
+        <v>1.026833414510196</v>
       </c>
       <c r="L9">
-        <v>0.9770166156694537</v>
+        <v>1.025749821446003</v>
       </c>
       <c r="M9">
-        <v>0.9368625506708067</v>
+        <v>1.019201389178886</v>
       </c>
       <c r="N9">
-        <v>0.9966649118055266</v>
+        <v>1.012145626630845</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9401016284622351</v>
+        <v>1.016553117362615</v>
       </c>
       <c r="D10">
-        <v>0.9731634176076278</v>
+        <v>1.022017868144466</v>
       </c>
       <c r="E10">
-        <v>0.9507959925733254</v>
+        <v>1.020362185706901</v>
       </c>
       <c r="F10">
-        <v>0.9031211889829562</v>
+        <v>1.01270424496136</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024880291324957</v>
+        <v>1.026866780036499</v>
       </c>
       <c r="J10">
-        <v>0.9709112319093821</v>
+        <v>1.023022118740636</v>
       </c>
       <c r="K10">
-        <v>0.9880347307879863</v>
+        <v>1.025514178519383</v>
       </c>
       <c r="L10">
-        <v>0.9661143471119752</v>
+        <v>1.023864602832196</v>
       </c>
       <c r="M10">
-        <v>0.9194915676192037</v>
+        <v>1.016235194897558</v>
       </c>
       <c r="N10">
-        <v>0.9931361905797842</v>
+        <v>1.011559921669934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.933886099977815</v>
+        <v>1.0155695537369</v>
       </c>
       <c r="D11">
-        <v>0.9688073785680744</v>
+        <v>1.0213171480227</v>
       </c>
       <c r="E11">
-        <v>0.9450841846240097</v>
+        <v>1.019415451458833</v>
       </c>
       <c r="F11">
-        <v>0.8942442069298695</v>
+        <v>1.011285131537907</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023340618856766</v>
+        <v>1.026685751600657</v>
       </c>
       <c r="J11">
-        <v>0.966293637081804</v>
+        <v>1.022280697335263</v>
       </c>
       <c r="K11">
-        <v>0.9843425320608473</v>
+        <v>1.024939550683021</v>
       </c>
       <c r="L11">
-        <v>0.9611217642695593</v>
+        <v>1.023045145576933</v>
       </c>
       <c r="M11">
-        <v>0.9114800392284429</v>
+        <v>1.014946342227964</v>
       </c>
       <c r="N11">
-        <v>0.991518038064525</v>
+        <v>1.011304774168219</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9315206433043496</v>
+        <v>1.015203738418977</v>
       </c>
       <c r="D12">
-        <v>0.9671516222941994</v>
+        <v>1.021056459390797</v>
       </c>
       <c r="E12">
-        <v>0.9429122997663758</v>
+        <v>1.019063397469426</v>
       </c>
       <c r="F12">
-        <v>0.8908538872031928</v>
+        <v>1.010757364755753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0227524621358</v>
+        <v>1.026618092758377</v>
       </c>
       <c r="J12">
-        <v>0.9645351470251532</v>
+        <v>1.022004777117766</v>
       </c>
       <c r="K12">
-        <v>0.9829364154755164</v>
+        <v>1.024725591797454</v>
       </c>
       <c r="L12">
-        <v>0.9592215082875484</v>
+        <v>1.022740279813723</v>
       </c>
       <c r="M12">
-        <v>0.9084203632602449</v>
+        <v>1.014466910643693</v>
       </c>
       <c r="N12">
-        <v>0.9909018577448147</v>
+        <v>1.011209767473225</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9320307216934541</v>
+        <v>1.015282228788167</v>
       </c>
       <c r="D13">
-        <v>0.9675085662681501</v>
+        <v>1.0211123966621</v>
       </c>
       <c r="E13">
-        <v>0.9433805501836965</v>
+        <v>1.019138932289241</v>
       </c>
       <c r="F13">
-        <v>0.8915855438467485</v>
+        <v>1.010870602106529</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022879387164528</v>
+        <v>1.026632624715598</v>
       </c>
       <c r="J13">
-        <v>0.9649143934362739</v>
+        <v>1.022063986778823</v>
       </c>
       <c r="K13">
-        <v>0.9832396664110054</v>
+        <v>1.0247715101953</v>
       </c>
       <c r="L13">
-        <v>0.9596312812551288</v>
+        <v>1.022805696572021</v>
       </c>
       <c r="M13">
-        <v>0.9090806555844878</v>
+        <v>1.014569782131006</v>
       </c>
       <c r="N13">
-        <v>0.9910347435360727</v>
+        <v>1.011230157352004</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9336917680478746</v>
+        <v>1.015539325111479</v>
       </c>
       <c r="D14">
-        <v>0.9686713083101314</v>
+        <v>1.0212956078266</v>
       </c>
       <c r="E14">
-        <v>0.9449057166584715</v>
+        <v>1.019386358684063</v>
       </c>
       <c r="F14">
-        <v>0.893965935119529</v>
+        <v>1.011241519471267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023292343150657</v>
+        <v>1.026680167418462</v>
       </c>
       <c r="J14">
-        <v>0.9661491933416153</v>
+        <v>1.022257900415823</v>
       </c>
       <c r="K14">
-        <v>0.9842270325325947</v>
+        <v>1.024921875353783</v>
       </c>
       <c r="L14">
-        <v>0.9609656545028011</v>
+        <v>1.02301995518807</v>
       </c>
       <c r="M14">
-        <v>0.9112289025009783</v>
+        <v>1.014906726559227</v>
       </c>
       <c r="N14">
-        <v>0.9914674231416115</v>
+        <v>1.011296925668103</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9347074701217963</v>
+        <v>1.015697667191708</v>
       </c>
       <c r="D15">
-        <v>0.9693825822604987</v>
+        <v>1.021408435717716</v>
       </c>
       <c r="E15">
-        <v>0.9458385803142847</v>
+        <v>1.019538753608022</v>
       </c>
       <c r="F15">
-        <v>0.8954198601127702</v>
+        <v>1.011469967700215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023544574204378</v>
+        <v>1.02670940473236</v>
       </c>
       <c r="J15">
-        <v>0.9669041010604178</v>
+        <v>1.022377307372519</v>
       </c>
       <c r="K15">
-        <v>0.9848306680612751</v>
+        <v>1.025014451628861</v>
       </c>
       <c r="L15">
-        <v>0.9617815748324688</v>
+        <v>1.023151902699148</v>
       </c>
       <c r="M15">
-        <v>0.9125410568770461</v>
+        <v>1.015114236457489</v>
       </c>
       <c r="N15">
-        <v>0.9917319548284068</v>
+        <v>1.011338032787545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9405065436495558</v>
+        <v>1.016618327178187</v>
       </c>
       <c r="D16">
-        <v>0.973447454960586</v>
+        <v>1.022064315554549</v>
       </c>
       <c r="E16">
-        <v>0.9511683405311019</v>
+        <v>1.020424962602938</v>
       </c>
       <c r="F16">
-        <v>0.9036979700454171</v>
+        <v>1.01279833778416</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024980285860007</v>
+        <v>1.026878735993767</v>
       </c>
       <c r="J16">
-        <v>0.9712118879807473</v>
+        <v>1.023071251589614</v>
       </c>
       <c r="K16">
-        <v>0.9882751206332009</v>
+        <v>1.025552242639862</v>
       </c>
       <c r="L16">
-        <v>0.9664395590289609</v>
+        <v>1.023918920367817</v>
       </c>
       <c r="M16">
-        <v>0.9200121177943476</v>
+        <v>1.016320635683025</v>
       </c>
       <c r="N16">
-        <v>0.9932415536702287</v>
+        <v>1.011576822392238</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9440500903707085</v>
+        <v>1.01719499811278</v>
       </c>
       <c r="D17">
-        <v>0.9759344667906082</v>
+        <v>1.022475009222619</v>
       </c>
       <c r="E17">
-        <v>0.9544281818976165</v>
+        <v>1.02098016676685</v>
       </c>
       <c r="F17">
-        <v>0.9087380400670912</v>
+        <v>1.013630466943759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025853649345778</v>
+        <v>1.026984213161727</v>
       </c>
       <c r="J17">
-        <v>0.9738421459763194</v>
+        <v>1.02350562245178</v>
       </c>
       <c r="K17">
-        <v>0.9903780328281548</v>
+        <v>1.025888672078583</v>
       </c>
       <c r="L17">
-        <v>0.9692853907380143</v>
+        <v>1.024399200986319</v>
       </c>
       <c r="M17">
-        <v>0.9245607639273848</v>
+        <v>1.017076165164919</v>
       </c>
       <c r="N17">
-        <v>0.9941633116034134</v>
+        <v>1.011726196039876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9460850199778964</v>
+        <v>1.01753106369175</v>
       </c>
       <c r="D18">
-        <v>0.9773637028318858</v>
+        <v>1.022714301967889</v>
       </c>
       <c r="E18">
-        <v>0.9563012490784653</v>
+        <v>1.02130376242016</v>
       </c>
       <c r="F18">
-        <v>0.9116264358710716</v>
+        <v>1.014115437337601</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026353737499966</v>
+        <v>1.027045470444488</v>
       </c>
       <c r="J18">
-        <v>0.9753518680849105</v>
+        <v>1.023758654474706</v>
       </c>
       <c r="K18">
-        <v>0.9915849530541625</v>
+        <v>1.026084579090409</v>
       </c>
       <c r="L18">
-        <v>0.9709194660979129</v>
+        <v>1.024679037787807</v>
       </c>
       <c r="M18">
-        <v>0.9271674450815875</v>
+        <v>1.017516422885103</v>
       </c>
       <c r="N18">
-        <v>0.9946923752390475</v>
+        <v>1.011813175428551</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9467736285189532</v>
+        <v>1.017645603399015</v>
       </c>
       <c r="D19">
-        <v>0.9778475149532783</v>
+        <v>1.022795851088976</v>
       </c>
       <c r="E19">
-        <v>0.9569352599187783</v>
+        <v>1.021414058864249</v>
       </c>
       <c r="F19">
-        <v>0.9126029028160922</v>
+        <v>1.014280733210276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026522714581333</v>
+        <v>1.0270663125978</v>
       </c>
       <c r="J19">
-        <v>0.9758626231864794</v>
+        <v>1.023844876318331</v>
       </c>
       <c r="K19">
-        <v>0.9919932440724342</v>
+        <v>1.026151323140681</v>
       </c>
       <c r="L19">
-        <v>0.9714723950323957</v>
+        <v>1.024774403863011</v>
       </c>
       <c r="M19">
-        <v>0.9280486536529529</v>
+        <v>1.017666467161364</v>
       </c>
       <c r="N19">
-        <v>0.9948713599283362</v>
+        <v>1.011842808189749</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9436732486802381</v>
+        <v>1.017133157570807</v>
       </c>
       <c r="D20">
-        <v>0.975669873316546</v>
+        <v>1.022430972411612</v>
       </c>
       <c r="E20">
-        <v>0.9540813999124171</v>
+        <v>1.020920624093024</v>
       </c>
       <c r="F20">
-        <v>0.9082026804007922</v>
+        <v>1.013541228547996</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025760921026263</v>
+        <v>1.026972923968692</v>
       </c>
       <c r="J20">
-        <v>0.9735625055102549</v>
+        <v>1.023459052685166</v>
       </c>
       <c r="K20">
-        <v>0.9901544691210679</v>
+        <v>1.02585261021642</v>
       </c>
       <c r="L20">
-        <v>0.9689827666485812</v>
+        <v>1.024347702811525</v>
       </c>
       <c r="M20">
-        <v>0.9240776112234373</v>
+        <v>1.016995148625586</v>
       </c>
       <c r="N20">
-        <v>0.9940653138798325</v>
+        <v>1.011710184964797</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9332042531891214</v>
+        <v>1.015463629892966</v>
       </c>
       <c r="D21">
-        <v>0.9683299865968005</v>
+        <v>1.021241668083703</v>
       </c>
       <c r="E21">
-        <v>0.9444580298190415</v>
+        <v>1.019313508765056</v>
       </c>
       <c r="F21">
-        <v>0.8932676420027065</v>
+        <v>1.011132311555151</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023171200409458</v>
+        <v>1.026666178805662</v>
       </c>
       <c r="J21">
-        <v>0.9657868129451469</v>
+        <v>1.022200812207182</v>
       </c>
       <c r="K21">
-        <v>0.9839372672077412</v>
+        <v>1.024877610879333</v>
       </c>
       <c r="L21">
-        <v>0.9605740231995717</v>
+        <v>1.022956874778536</v>
       </c>
       <c r="M21">
-        <v>0.9105987045089228</v>
+        <v>1.014807524172627</v>
       </c>
       <c r="N21">
-        <v>0.9913404414718988</v>
+        <v>1.011277270536083</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9262897513369303</v>
+        <v>1.014411171335482</v>
       </c>
       <c r="D22">
-        <v>0.9634942941996748</v>
+        <v>1.020491529420833</v>
       </c>
       <c r="E22">
-        <v>0.9381131037715152</v>
+        <v>1.018300762101703</v>
       </c>
       <c r="F22">
-        <v>0.8833316039526977</v>
+        <v>1.009613986265582</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02144791270545</v>
+        <v>1.026470902981808</v>
       </c>
       <c r="J22">
-        <v>0.9606443523494412</v>
+        <v>1.021406673944395</v>
       </c>
       <c r="K22">
-        <v>0.9798253641480498</v>
+        <v>1.024261598019425</v>
       </c>
       <c r="L22">
-        <v>0.9550190175647413</v>
+        <v>1.022079607153141</v>
       </c>
       <c r="M22">
-        <v>0.9016321871822401</v>
+        <v>1.01342804935877</v>
       </c>
       <c r="N22">
-        <v>0.9895386781067407</v>
+        <v>1.011003727186289</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9299891492599558</v>
+        <v>1.014969365374107</v>
       </c>
       <c r="D23">
-        <v>0.9660802346252199</v>
+        <v>1.020889419869259</v>
       </c>
       <c r="E23">
-        <v>0.9415066793295824</v>
+        <v>1.018837859061156</v>
       </c>
       <c r="F23">
-        <v>0.888655158204513</v>
+        <v>1.01041924246229</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022371061561501</v>
+        <v>1.026574652025284</v>
       </c>
       <c r="J23">
-        <v>0.9633963029399242</v>
+        <v>1.021827952392576</v>
       </c>
       <c r="K23">
-        <v>0.9820257845969355</v>
+        <v>1.024588444140407</v>
       </c>
       <c r="L23">
-        <v>0.9579911513081945</v>
+        <v>1.022544932097053</v>
       </c>
       <c r="M23">
-        <v>0.9064361294634838</v>
+        <v>1.014159724528977</v>
       </c>
       <c r="N23">
-        <v>0.9905028256763621</v>
+        <v>1.011148866999202</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9438436255294123</v>
+        <v>1.017161101566969</v>
       </c>
       <c r="D24">
-        <v>0.9757894975468151</v>
+        <v>1.022450871548036</v>
       </c>
       <c r="E24">
-        <v>0.9542381829488518</v>
+        <v>1.020947529623083</v>
       </c>
       <c r="F24">
-        <v>0.9084447443514673</v>
+        <v>1.01358155276231</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025802849680923</v>
+        <v>1.02697802589032</v>
       </c>
       <c r="J24">
-        <v>0.9736889382533234</v>
+        <v>1.023480096575183</v>
       </c>
       <c r="K24">
-        <v>0.9902555484659094</v>
+        <v>1.02586890602885</v>
       </c>
       <c r="L24">
-        <v>0.9691195889677359</v>
+        <v>1.024370973555513</v>
       </c>
       <c r="M24">
-        <v>0.9242960699753613</v>
+        <v>1.017031757840095</v>
       </c>
       <c r="N24">
-        <v>0.9941096212380529</v>
+        <v>1.011717420136946</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9586807724778255</v>
+        <v>1.019692888770926</v>
       </c>
       <c r="D25">
-        <v>0.9862258953664105</v>
+        <v>1.024252757413305</v>
       </c>
       <c r="E25">
-        <v>0.9679124978204926</v>
+        <v>1.023386091337063</v>
       </c>
       <c r="F25">
-        <v>0.9294171354486774</v>
+        <v>1.017235771092883</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029422625137639</v>
+        <v>1.02743570262522</v>
       </c>
       <c r="J25">
-        <v>0.9846834519875771</v>
+        <v>1.025384439443328</v>
       </c>
       <c r="K25">
-        <v>0.9990418674268571</v>
+        <v>1.027342024152995</v>
       </c>
       <c r="L25">
-        <v>0.9810302293384646</v>
+        <v>1.02647815198422</v>
       </c>
       <c r="M25">
-        <v>0.9432198011584638</v>
+        <v>1.02034780865514</v>
       </c>
       <c r="N25">
-        <v>0.997961875532745</v>
+        <v>1.012371410037132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021703328107251</v>
+        <v>0.9696959157794693</v>
       </c>
       <c r="D2">
-        <v>1.025682068568814</v>
+        <v>0.9939951862720794</v>
       </c>
       <c r="E2">
-        <v>1.025323746927289</v>
+        <v>0.978091688082475</v>
       </c>
       <c r="F2">
-        <v>1.020138785652877</v>
+        <v>0.9448675708976367</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027792440572788</v>
+        <v>1.032062268538059</v>
       </c>
       <c r="J2">
-        <v>1.026893301106865</v>
+        <v>0.9928224030679159</v>
       </c>
       <c r="K2">
-        <v>1.028506925652289</v>
+        <v>1.005538816489871</v>
       </c>
       <c r="L2">
-        <v>1.028149652795205</v>
+        <v>0.9898649204885306</v>
       </c>
       <c r="M2">
-        <v>1.022979957318763</v>
+        <v>0.957152450056329</v>
       </c>
       <c r="N2">
-        <v>1.01288847942797</v>
+        <v>1.000811535286587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023158140410001</v>
+        <v>0.9772899821784491</v>
       </c>
       <c r="D3">
-        <v>1.026715445042946</v>
+        <v>0.9993599118530624</v>
       </c>
       <c r="E3">
-        <v>1.026726601252953</v>
+        <v>0.9851234111126146</v>
       </c>
       <c r="F3">
-        <v>1.022240355144684</v>
+        <v>0.9554711919144938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028046694830089</v>
+        <v>1.033852995713633</v>
       </c>
       <c r="J3">
-        <v>1.027983218889189</v>
+        <v>0.9984194911573404</v>
       </c>
       <c r="K3">
-        <v>1.029347043456439</v>
+        <v>1.010000989283383</v>
       </c>
       <c r="L3">
-        <v>1.02935816940541</v>
+        <v>0.9959502473097774</v>
       </c>
       <c r="M3">
-        <v>1.024884149848731</v>
+        <v>0.9667074198122927</v>
       </c>
       <c r="N3">
-        <v>1.013261333857136</v>
+        <v>1.002769337096948</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024097285015622</v>
+        <v>0.9820364444179611</v>
       </c>
       <c r="D4">
-        <v>1.02738210194127</v>
+        <v>1.002715769845211</v>
       </c>
       <c r="E4">
-        <v>1.027632529772037</v>
+        <v>0.9895243465594621</v>
       </c>
       <c r="F4">
-        <v>1.023597449895691</v>
+        <v>0.9620818472935975</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028209022641972</v>
+        <v>1.034958307374789</v>
       </c>
       <c r="J4">
-        <v>1.028685910111212</v>
+        <v>1.001911095810843</v>
       </c>
       <c r="K4">
-        <v>1.029888057574872</v>
+        <v>1.012781528054745</v>
       </c>
       <c r="L4">
-        <v>1.030137840757873</v>
+        <v>0.9997508696987371</v>
       </c>
       <c r="M4">
-        <v>1.026113189372571</v>
+        <v>0.9726605302597443</v>
       </c>
       <c r="N4">
-        <v>1.013501418083647</v>
+        <v>1.003989589431357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024491580937568</v>
+        <v>0.9839943433491222</v>
       </c>
       <c r="D5">
-        <v>1.027661890065076</v>
+        <v>1.004100567073745</v>
       </c>
       <c r="E5">
-        <v>1.028012957350424</v>
+        <v>0.9913410760597376</v>
       </c>
       <c r="F5">
-        <v>1.024167331847763</v>
+        <v>0.9648053761893201</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02827674265516</v>
+        <v>1.035410831261812</v>
       </c>
       <c r="J5">
-        <v>1.028980716818536</v>
+        <v>1.0033497320453</v>
       </c>
       <c r="K5">
-        <v>1.030114883612431</v>
+        <v>1.013926387781267</v>
       </c>
       <c r="L5">
-        <v>1.03046506755829</v>
+        <v>1.001317886920986</v>
       </c>
       <c r="M5">
-        <v>1.026629153822062</v>
+        <v>0.9751121786195132</v>
       </c>
       <c r="N5">
-        <v>1.013602070110541</v>
+        <v>1.004492080874971</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02455775472906</v>
+        <v>0.984320953080511</v>
       </c>
       <c r="D6">
-        <v>1.027708840073896</v>
+        <v>1.004331600294838</v>
       </c>
       <c r="E6">
-        <v>1.028076808166975</v>
+        <v>0.9916442144638442</v>
       </c>
       <c r="F6">
-        <v>1.024262980553591</v>
+        <v>0.9652595277278855</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028288082558359</v>
+        <v>1.035486116903866</v>
       </c>
       <c r="J6">
-        <v>1.029030180928823</v>
+        <v>1.003589622951519</v>
       </c>
       <c r="K6">
-        <v>1.030152932727725</v>
+        <v>1.014117243182117</v>
       </c>
       <c r="L6">
-        <v>1.030519978539362</v>
+        <v>1.001579247198323</v>
       </c>
       <c r="M6">
-        <v>1.026715744615017</v>
+        <v>0.9755209343131229</v>
       </c>
       <c r="N6">
-        <v>1.013618953718345</v>
+        <v>1.004575853133666</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024102555649716</v>
+        <v>0.9820627501673175</v>
       </c>
       <c r="D7">
-        <v>1.027385842340759</v>
+        <v>1.002734373710442</v>
       </c>
       <c r="E7">
-        <v>1.027637614721928</v>
+        <v>0.9895487503007664</v>
       </c>
       <c r="F7">
-        <v>1.023605067178698</v>
+        <v>0.9621184521994306</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028209929571007</v>
+        <v>1.034964400964391</v>
       </c>
       <c r="J7">
-        <v>1.028689851699278</v>
+        <v>1.001930431431634</v>
       </c>
       <c r="K7">
-        <v>1.029891090850111</v>
+        <v>1.012796918486911</v>
       </c>
       <c r="L7">
-        <v>1.030142215317694</v>
+        <v>0.9997719266106796</v>
       </c>
       <c r="M7">
-        <v>1.026120086536078</v>
+        <v>0.9726934849880815</v>
       </c>
       <c r="N7">
-        <v>1.013502764095653</v>
+        <v>1.003996344207164</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022195453727851</v>
+        <v>0.972298658519934</v>
       </c>
       <c r="D8">
-        <v>1.026031722128416</v>
+        <v>0.9958331728782976</v>
       </c>
       <c r="E8">
-        <v>1.025798228770371</v>
+        <v>0.9805003928829349</v>
       </c>
       <c r="F8">
-        <v>1.020849604943952</v>
+        <v>0.9485058160230097</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027878822063897</v>
+        <v>1.032678916704887</v>
       </c>
       <c r="J8">
-        <v>1.027262178399271</v>
+        <v>0.9947421139841451</v>
       </c>
       <c r="K8">
-        <v>1.028791388857837</v>
+        <v>1.007069883893946</v>
       </c>
       <c r="L8">
-        <v>1.028558561974371</v>
+        <v>0.9919511417505164</v>
       </c>
       <c r="M8">
-        <v>1.023624141216134</v>
+        <v>0.9604316437355669</v>
       </c>
       <c r="N8">
-        <v>1.013014732665672</v>
+        <v>1.001483239410114</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018817467339376</v>
+        <v>0.953679610545906</v>
       </c>
       <c r="D9">
-        <v>1.023629948871508</v>
+        <v>0.9827040885327119</v>
       </c>
       <c r="E9">
-        <v>1.022542710133389</v>
+        <v>0.9632986279024295</v>
       </c>
       <c r="F9">
-        <v>1.015972062995973</v>
+        <v>0.9223705045557822</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027278487537563</v>
+        <v>1.028209931016108</v>
       </c>
       <c r="J9">
-        <v>1.024726487939678</v>
+        <v>0.9809812116502783</v>
       </c>
       <c r="K9">
-        <v>1.026833414510196</v>
+        <v>0.9960841546586663</v>
       </c>
       <c r="L9">
-        <v>1.025749821446003</v>
+        <v>0.9770166156694534</v>
       </c>
       <c r="M9">
-        <v>1.019201389178886</v>
+        <v>0.936862550670806</v>
       </c>
       <c r="N9">
-        <v>1.012145626630845</v>
+        <v>0.9966649118055264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016553117362615</v>
+        <v>0.9401016284622354</v>
       </c>
       <c r="D10">
-        <v>1.022017868144466</v>
+        <v>0.9731634176076283</v>
       </c>
       <c r="E10">
-        <v>1.020362185706901</v>
+        <v>0.9507959925733257</v>
       </c>
       <c r="F10">
-        <v>1.01270424496136</v>
+        <v>0.9031211889829569</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026866780036499</v>
+        <v>1.024880291324957</v>
       </c>
       <c r="J10">
-        <v>1.023022118740636</v>
+        <v>0.9709112319093826</v>
       </c>
       <c r="K10">
-        <v>1.025514178519383</v>
+        <v>0.9880347307879866</v>
       </c>
       <c r="L10">
-        <v>1.023864602832196</v>
+        <v>0.9661143471119756</v>
       </c>
       <c r="M10">
-        <v>1.016235194897558</v>
+        <v>0.9194915676192044</v>
       </c>
       <c r="N10">
-        <v>1.011559921669934</v>
+        <v>0.9931361905797843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0155695537369</v>
+        <v>0.9338860999778124</v>
       </c>
       <c r="D11">
-        <v>1.0213171480227</v>
+        <v>0.9688073785680723</v>
       </c>
       <c r="E11">
-        <v>1.019415451458833</v>
+        <v>0.9450841846240071</v>
       </c>
       <c r="F11">
-        <v>1.011285131537907</v>
+        <v>0.8942442069298668</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026685751600657</v>
+        <v>1.023340618856765</v>
       </c>
       <c r="J11">
-        <v>1.022280697335263</v>
+        <v>0.9662936370818015</v>
       </c>
       <c r="K11">
-        <v>1.024939550683021</v>
+        <v>0.9843425320608451</v>
       </c>
       <c r="L11">
-        <v>1.023045145576933</v>
+        <v>0.9611217642695566</v>
       </c>
       <c r="M11">
-        <v>1.014946342227964</v>
+        <v>0.9114800392284405</v>
       </c>
       <c r="N11">
-        <v>1.011304774168219</v>
+        <v>0.9915180380645241</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015203738418977</v>
+        <v>0.931520643304349</v>
       </c>
       <c r="D12">
-        <v>1.021056459390797</v>
+        <v>0.967151622294199</v>
       </c>
       <c r="E12">
-        <v>1.019063397469426</v>
+        <v>0.9429122997663755</v>
       </c>
       <c r="F12">
-        <v>1.010757364755753</v>
+        <v>0.890853887203192</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026618092758377</v>
+        <v>1.0227524621358</v>
       </c>
       <c r="J12">
-        <v>1.022004777117766</v>
+        <v>0.9645351470251526</v>
       </c>
       <c r="K12">
-        <v>1.024725591797454</v>
+        <v>0.9829364154755161</v>
       </c>
       <c r="L12">
-        <v>1.022740279813723</v>
+        <v>0.9592215082875479</v>
       </c>
       <c r="M12">
-        <v>1.014466910643693</v>
+        <v>0.9084203632602439</v>
       </c>
       <c r="N12">
-        <v>1.011209767473225</v>
+        <v>0.9909018577448145</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015282228788167</v>
+        <v>0.9320307216934546</v>
       </c>
       <c r="D13">
-        <v>1.0211123966621</v>
+        <v>0.9675085662681505</v>
       </c>
       <c r="E13">
-        <v>1.019138932289241</v>
+        <v>0.9433805501836967</v>
       </c>
       <c r="F13">
-        <v>1.010870602106529</v>
+        <v>0.8915855438467492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026632624715598</v>
+        <v>1.022879387164528</v>
       </c>
       <c r="J13">
-        <v>1.022063986778823</v>
+        <v>0.9649143934362742</v>
       </c>
       <c r="K13">
-        <v>1.0247715101953</v>
+        <v>0.9832396664110056</v>
       </c>
       <c r="L13">
-        <v>1.022805696572021</v>
+        <v>0.9596312812551292</v>
       </c>
       <c r="M13">
-        <v>1.014569782131006</v>
+        <v>0.9090806555844886</v>
       </c>
       <c r="N13">
-        <v>1.011230157352004</v>
+        <v>0.9910347435360728</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015539325111479</v>
+        <v>0.9336917680478756</v>
       </c>
       <c r="D14">
-        <v>1.0212956078266</v>
+        <v>0.9686713083101322</v>
       </c>
       <c r="E14">
-        <v>1.019386358684063</v>
+        <v>0.9449057166584724</v>
       </c>
       <c r="F14">
-        <v>1.011241519471267</v>
+        <v>0.8939659351195298</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026680167418462</v>
+        <v>1.023292343150657</v>
       </c>
       <c r="J14">
-        <v>1.022257900415823</v>
+        <v>0.9661491933416165</v>
       </c>
       <c r="K14">
-        <v>1.024921875353783</v>
+        <v>0.9842270325325954</v>
       </c>
       <c r="L14">
-        <v>1.02301995518807</v>
+        <v>0.9609656545028021</v>
       </c>
       <c r="M14">
-        <v>1.014906726559227</v>
+        <v>0.9112289025009792</v>
       </c>
       <c r="N14">
-        <v>1.011296925668103</v>
+        <v>0.9914674231416118</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015697667191708</v>
+        <v>0.9347074701217961</v>
       </c>
       <c r="D15">
-        <v>1.021408435717716</v>
+        <v>0.9693825822604987</v>
       </c>
       <c r="E15">
-        <v>1.019538753608022</v>
+        <v>0.9458385803142842</v>
       </c>
       <c r="F15">
-        <v>1.011469967700215</v>
+        <v>0.8954198601127699</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02670940473236</v>
+        <v>1.023544574204378</v>
       </c>
       <c r="J15">
-        <v>1.022377307372519</v>
+        <v>0.9669041010604175</v>
       </c>
       <c r="K15">
-        <v>1.025014451628861</v>
+        <v>0.9848306680612751</v>
       </c>
       <c r="L15">
-        <v>1.023151902699148</v>
+        <v>0.9617815748324686</v>
       </c>
       <c r="M15">
-        <v>1.015114236457489</v>
+        <v>0.9125410568770458</v>
       </c>
       <c r="N15">
-        <v>1.011338032787545</v>
+        <v>0.9917319548284066</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016618327178187</v>
+        <v>0.9405065436495553</v>
       </c>
       <c r="D16">
-        <v>1.022064315554549</v>
+        <v>0.9734474549605856</v>
       </c>
       <c r="E16">
-        <v>1.020424962602938</v>
+        <v>0.9511683405311014</v>
       </c>
       <c r="F16">
-        <v>1.01279833778416</v>
+        <v>0.9036979700454165</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026878735993767</v>
+        <v>1.024980285860007</v>
       </c>
       <c r="J16">
-        <v>1.023071251589614</v>
+        <v>0.9712118879807469</v>
       </c>
       <c r="K16">
-        <v>1.025552242639862</v>
+        <v>0.9882751206332003</v>
       </c>
       <c r="L16">
-        <v>1.023918920367817</v>
+        <v>0.9664395590289606</v>
       </c>
       <c r="M16">
-        <v>1.016320635683025</v>
+        <v>0.9200121177943473</v>
       </c>
       <c r="N16">
-        <v>1.011576822392238</v>
+        <v>0.9932415536702285</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01719499811278</v>
+        <v>0.9440500903707093</v>
       </c>
       <c r="D17">
-        <v>1.022475009222619</v>
+        <v>0.9759344667906089</v>
       </c>
       <c r="E17">
-        <v>1.02098016676685</v>
+        <v>0.954428181897617</v>
       </c>
       <c r="F17">
-        <v>1.013630466943759</v>
+        <v>0.908738040067092</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026984213161727</v>
+        <v>1.025853649345778</v>
       </c>
       <c r="J17">
-        <v>1.02350562245178</v>
+        <v>0.9738421459763201</v>
       </c>
       <c r="K17">
-        <v>1.025888672078583</v>
+        <v>0.9903780328281556</v>
       </c>
       <c r="L17">
-        <v>1.024399200986319</v>
+        <v>0.9692853907380149</v>
       </c>
       <c r="M17">
-        <v>1.017076165164919</v>
+        <v>0.9245607639273855</v>
       </c>
       <c r="N17">
-        <v>1.011726196039876</v>
+        <v>0.9941633116034136</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01753106369175</v>
+        <v>0.9460850199778962</v>
       </c>
       <c r="D18">
-        <v>1.022714301967889</v>
+        <v>0.9773637028318862</v>
       </c>
       <c r="E18">
-        <v>1.02130376242016</v>
+        <v>0.9563012490784651</v>
       </c>
       <c r="F18">
-        <v>1.014115437337601</v>
+        <v>0.9116264358710718</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027045470444488</v>
+        <v>1.026353737499967</v>
       </c>
       <c r="J18">
-        <v>1.023758654474706</v>
+        <v>0.9753518680849104</v>
       </c>
       <c r="K18">
-        <v>1.026084579090409</v>
+        <v>0.9915849530541628</v>
       </c>
       <c r="L18">
-        <v>1.024679037787807</v>
+        <v>0.970919466097913</v>
       </c>
       <c r="M18">
-        <v>1.017516422885103</v>
+        <v>0.9271674450815878</v>
       </c>
       <c r="N18">
-        <v>1.011813175428551</v>
+        <v>0.9946923752390476</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017645603399015</v>
+        <v>0.9467736285189525</v>
       </c>
       <c r="D19">
-        <v>1.022795851088976</v>
+        <v>0.9778475149532779</v>
       </c>
       <c r="E19">
-        <v>1.021414058864249</v>
+        <v>0.9569352599187776</v>
       </c>
       <c r="F19">
-        <v>1.014280733210276</v>
+        <v>0.9126029028160915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0270663125978</v>
+        <v>1.026522714581333</v>
       </c>
       <c r="J19">
-        <v>1.023844876318331</v>
+        <v>0.9758626231864788</v>
       </c>
       <c r="K19">
-        <v>1.026151323140681</v>
+        <v>0.9919932440724338</v>
       </c>
       <c r="L19">
-        <v>1.024774403863011</v>
+        <v>0.9714723950323949</v>
       </c>
       <c r="M19">
-        <v>1.017666467161364</v>
+        <v>0.928048653652952</v>
       </c>
       <c r="N19">
-        <v>1.011842808189749</v>
+        <v>0.9948713599283361</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017133157570807</v>
+        <v>0.9436732486802384</v>
       </c>
       <c r="D20">
-        <v>1.022430972411612</v>
+        <v>0.9756698733165463</v>
       </c>
       <c r="E20">
-        <v>1.020920624093024</v>
+        <v>0.9540813999124175</v>
       </c>
       <c r="F20">
-        <v>1.013541228547996</v>
+        <v>0.9082026804007926</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026972923968692</v>
+        <v>1.025760921026263</v>
       </c>
       <c r="J20">
-        <v>1.023459052685166</v>
+        <v>0.973562505510255</v>
       </c>
       <c r="K20">
-        <v>1.02585261021642</v>
+        <v>0.9901544691210679</v>
       </c>
       <c r="L20">
-        <v>1.024347702811525</v>
+        <v>0.9689827666485814</v>
       </c>
       <c r="M20">
-        <v>1.016995148625586</v>
+        <v>0.9240776112234378</v>
       </c>
       <c r="N20">
-        <v>1.011710184964797</v>
+        <v>0.9940653138798325</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015463629892966</v>
+        <v>0.9332042531891213</v>
       </c>
       <c r="D21">
-        <v>1.021241668083703</v>
+        <v>0.9683299865968005</v>
       </c>
       <c r="E21">
-        <v>1.019313508765056</v>
+        <v>0.9444580298190414</v>
       </c>
       <c r="F21">
-        <v>1.011132311555151</v>
+        <v>0.8932676420027065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026666178805662</v>
+        <v>1.023171200409458</v>
       </c>
       <c r="J21">
-        <v>1.022200812207182</v>
+        <v>0.9657868129451469</v>
       </c>
       <c r="K21">
-        <v>1.024877610879333</v>
+        <v>0.9839372672077411</v>
       </c>
       <c r="L21">
-        <v>1.022956874778536</v>
+        <v>0.9605740231995715</v>
       </c>
       <c r="M21">
-        <v>1.014807524172627</v>
+        <v>0.9105987045089229</v>
       </c>
       <c r="N21">
-        <v>1.011277270536083</v>
+        <v>0.9913404414718988</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014411171335482</v>
+        <v>0.9262897513369305</v>
       </c>
       <c r="D22">
-        <v>1.020491529420833</v>
+        <v>0.9634942941996751</v>
       </c>
       <c r="E22">
-        <v>1.018300762101703</v>
+        <v>0.9381131037715158</v>
       </c>
       <c r="F22">
-        <v>1.009613986265582</v>
+        <v>0.8833316039526982</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026470902981808</v>
+        <v>1.02144791270545</v>
       </c>
       <c r="J22">
-        <v>1.021406673944395</v>
+        <v>0.9606443523494417</v>
       </c>
       <c r="K22">
-        <v>1.024261598019425</v>
+        <v>0.97982536414805</v>
       </c>
       <c r="L22">
-        <v>1.022079607153141</v>
+        <v>0.9550190175647416</v>
       </c>
       <c r="M22">
-        <v>1.01342804935877</v>
+        <v>0.9016321871822407</v>
       </c>
       <c r="N22">
-        <v>1.011003727186289</v>
+        <v>0.9895386781067407</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014969365374107</v>
+        <v>0.9299891492599548</v>
       </c>
       <c r="D23">
-        <v>1.020889419869259</v>
+        <v>0.9660802346252191</v>
       </c>
       <c r="E23">
-        <v>1.018837859061156</v>
+        <v>0.9415066793295815</v>
       </c>
       <c r="F23">
-        <v>1.01041924246229</v>
+        <v>0.8886551582045118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026574652025284</v>
+        <v>1.022371061561501</v>
       </c>
       <c r="J23">
-        <v>1.021827952392576</v>
+        <v>0.9633963029399233</v>
       </c>
       <c r="K23">
-        <v>1.024588444140407</v>
+        <v>0.9820257845969345</v>
       </c>
       <c r="L23">
-        <v>1.022544932097053</v>
+        <v>0.9579911513081935</v>
       </c>
       <c r="M23">
-        <v>1.014159724528977</v>
+        <v>0.906436129463483</v>
       </c>
       <c r="N23">
-        <v>1.011148866999202</v>
+        <v>0.9905028256763616</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017161101566969</v>
+        <v>0.9438436255294131</v>
       </c>
       <c r="D24">
-        <v>1.022450871548036</v>
+        <v>0.9757894975468154</v>
       </c>
       <c r="E24">
-        <v>1.020947529623083</v>
+        <v>0.9542381829488528</v>
       </c>
       <c r="F24">
-        <v>1.01358155276231</v>
+        <v>0.9084447443514679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02697802589032</v>
+        <v>1.025802849680923</v>
       </c>
       <c r="J24">
-        <v>1.023480096575183</v>
+        <v>0.973688938253324</v>
       </c>
       <c r="K24">
-        <v>1.02586890602885</v>
+        <v>0.9902555484659099</v>
       </c>
       <c r="L24">
-        <v>1.024370973555513</v>
+        <v>0.9691195889677368</v>
       </c>
       <c r="M24">
-        <v>1.017031757840095</v>
+        <v>0.9242960699753618</v>
       </c>
       <c r="N24">
-        <v>1.011717420136946</v>
+        <v>0.994109621238053</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019692888770926</v>
+        <v>0.9586807724778262</v>
       </c>
       <c r="D25">
-        <v>1.024252757413305</v>
+        <v>0.9862258953664117</v>
       </c>
       <c r="E25">
-        <v>1.023386091337063</v>
+        <v>0.9679124978204933</v>
       </c>
       <c r="F25">
-        <v>1.017235771092883</v>
+        <v>0.9294171354486787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02743570262522</v>
+        <v>1.029422625137639</v>
       </c>
       <c r="J25">
-        <v>1.025384439443328</v>
+        <v>0.9846834519875783</v>
       </c>
       <c r="K25">
-        <v>1.027342024152995</v>
+        <v>0.9990418674268581</v>
       </c>
       <c r="L25">
-        <v>1.02647815198422</v>
+        <v>0.9810302293384652</v>
       </c>
       <c r="M25">
-        <v>1.02034780865514</v>
+        <v>0.9432198011584652</v>
       </c>
       <c r="N25">
-        <v>1.012371410037132</v>
+        <v>0.9979618755327452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9696959157794693</v>
+        <v>1.00351472008121</v>
       </c>
       <c r="D2">
-        <v>0.9939951862720794</v>
+        <v>1.025332850085109</v>
       </c>
       <c r="E2">
-        <v>0.978091688082475</v>
+        <v>1.011666703175035</v>
       </c>
       <c r="F2">
-        <v>0.9448675708976367</v>
+        <v>1.029828831762993</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032062268538059</v>
+        <v>1.044878962994978</v>
       </c>
       <c r="J2">
-        <v>0.9928224030679159</v>
+        <v>1.025590812276747</v>
       </c>
       <c r="K2">
-        <v>1.005538816489871</v>
+        <v>1.036450188676522</v>
       </c>
       <c r="L2">
-        <v>0.9898649204885306</v>
+        <v>1.022965860301661</v>
       </c>
       <c r="M2">
-        <v>0.957152450056329</v>
+        <v>1.040887674847154</v>
       </c>
       <c r="N2">
-        <v>1.000811535286587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011572452958595</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04093224239508</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036843698640793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9772899821784491</v>
+        <v>1.008625025077379</v>
       </c>
       <c r="D3">
-        <v>0.9993599118530624</v>
+        <v>1.028700781991056</v>
       </c>
       <c r="E3">
-        <v>0.9851234111126146</v>
+        <v>1.016272404163763</v>
       </c>
       <c r="F3">
-        <v>0.9554711919144938</v>
+        <v>1.033236594523651</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033852995713633</v>
+        <v>1.045869396429616</v>
       </c>
       <c r="J3">
-        <v>0.9984194911573404</v>
+        <v>1.028883293203507</v>
       </c>
       <c r="K3">
-        <v>1.010000989283383</v>
+        <v>1.038979142895727</v>
       </c>
       <c r="L3">
-        <v>0.9959502473097774</v>
+        <v>1.026701225607337</v>
       </c>
       <c r="M3">
-        <v>0.9667074198122927</v>
+        <v>1.043461160646198</v>
       </c>
       <c r="N3">
-        <v>1.002769337096948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01276485753315</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04296897977142</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038629230431305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9820364444179611</v>
+        <v>1.011860730956488</v>
       </c>
       <c r="D4">
-        <v>1.002715769845211</v>
+        <v>1.030836826127968</v>
       </c>
       <c r="E4">
-        <v>0.9895243465594621</v>
+        <v>1.019194377965329</v>
       </c>
       <c r="F4">
-        <v>0.9620818472935975</v>
+        <v>1.035402368788051</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034958307374789</v>
+        <v>1.046485622108504</v>
       </c>
       <c r="J4">
-        <v>1.001911095810843</v>
+        <v>1.030965828317755</v>
       </c>
       <c r="K4">
-        <v>1.012781528054745</v>
+        <v>1.040576795315346</v>
       </c>
       <c r="L4">
-        <v>0.9997508696987371</v>
+        <v>1.029066534340316</v>
       </c>
       <c r="M4">
-        <v>0.9726605302597443</v>
+        <v>1.045091499276685</v>
       </c>
       <c r="N4">
-        <v>1.003989589431357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013518009214257</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044259277943752</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039759809165355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9839943433491222</v>
+        <v>1.01321054258694</v>
       </c>
       <c r="D5">
-        <v>1.004100567073745</v>
+        <v>1.031730922178607</v>
       </c>
       <c r="E5">
-        <v>0.9913410760597376</v>
+        <v>1.020415193743328</v>
       </c>
       <c r="F5">
-        <v>0.9648053761893201</v>
+        <v>1.036308413618925</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035410831261812</v>
+        <v>1.046742000422076</v>
       </c>
       <c r="J5">
-        <v>1.0033497320453</v>
+        <v>1.03183596147134</v>
       </c>
       <c r="K5">
-        <v>1.013926387781267</v>
+        <v>1.041245502312819</v>
       </c>
       <c r="L5">
-        <v>1.001317886920986</v>
+        <v>1.030054730315989</v>
       </c>
       <c r="M5">
-        <v>0.9751121786195132</v>
+        <v>1.045773396361121</v>
       </c>
       <c r="N5">
-        <v>1.004492080874971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013833354442632</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044798950771588</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040239811083943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.984320953080511</v>
+        <v>1.013443373958593</v>
       </c>
       <c r="D6">
-        <v>1.004331600294838</v>
+        <v>1.031887906426837</v>
       </c>
       <c r="E6">
-        <v>0.9916442144638442</v>
+        <v>1.020626502342488</v>
       </c>
       <c r="F6">
-        <v>0.9652595277278855</v>
+        <v>1.036465655281801</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035486116903866</v>
+        <v>1.046788479231438</v>
       </c>
       <c r="J6">
-        <v>1.003589622951519</v>
+        <v>1.031988383775822</v>
       </c>
       <c r="K6">
-        <v>1.014117243182117</v>
+        <v>1.041364620526776</v>
       </c>
       <c r="L6">
-        <v>1.001579247198323</v>
+        <v>1.0302269858533</v>
       </c>
       <c r="M6">
-        <v>0.9755209343131229</v>
+        <v>1.045892999535031</v>
       </c>
       <c r="N6">
-        <v>1.004575853133666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01388970725574</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044893608098302</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040332778557254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9820627501673175</v>
+        <v>1.011898143385342</v>
       </c>
       <c r="D7">
-        <v>1.002734373710442</v>
+        <v>1.030868905133539</v>
       </c>
       <c r="E7">
-        <v>0.9895487503007664</v>
+        <v>1.019229963078475</v>
       </c>
       <c r="F7">
-        <v>0.9621184521994306</v>
+        <v>1.035429743769014</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034964400964391</v>
+        <v>1.046499266786158</v>
       </c>
       <c r="J7">
-        <v>1.001930431431634</v>
+        <v>1.03099633256248</v>
       </c>
       <c r="K7">
-        <v>1.012796918486911</v>
+        <v>1.040605633835073</v>
       </c>
       <c r="L7">
-        <v>0.9997719266106796</v>
+        <v>1.029098784282136</v>
       </c>
       <c r="M7">
-        <v>0.9726934849880815</v>
+        <v>1.045115706667342</v>
       </c>
       <c r="N7">
-        <v>1.003996344207164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013532156448469</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044278436370908</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.0398003115256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.972298658519934</v>
+        <v>1.005281629488619</v>
       </c>
       <c r="D8">
-        <v>0.9958331728782976</v>
+        <v>1.026505734235996</v>
       </c>
       <c r="E8">
-        <v>0.9805003928829349</v>
+        <v>1.013260193808002</v>
       </c>
       <c r="F8">
-        <v>0.9485058160230097</v>
+        <v>1.031008222453371</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032678916704887</v>
+        <v>1.045231901164782</v>
       </c>
       <c r="J8">
-        <v>0.9947421139841451</v>
+        <v>1.026737724420665</v>
       </c>
       <c r="K8">
-        <v>1.007069883893946</v>
+        <v>1.0373382501006</v>
       </c>
       <c r="L8">
-        <v>0.9919511417505164</v>
+        <v>1.024263493831758</v>
       </c>
       <c r="M8">
-        <v>0.9604316437355669</v>
+        <v>1.041783931037578</v>
       </c>
       <c r="N8">
-        <v>1.001483239410114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011992139894531</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041641568304349</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037494583337154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.953679610545906</v>
+        <v>0.993014703304621</v>
       </c>
       <c r="D9">
-        <v>0.9827040885327119</v>
+        <v>1.018436632339329</v>
       </c>
       <c r="E9">
-        <v>0.9632986279024295</v>
+        <v>1.002237632284149</v>
       </c>
       <c r="F9">
-        <v>0.9223705045557822</v>
+        <v>1.022875333469522</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028209931016108</v>
+        <v>1.042786865508618</v>
       </c>
       <c r="J9">
-        <v>0.9809812116502783</v>
+        <v>1.018816564940437</v>
       </c>
       <c r="K9">
-        <v>0.9960841546586663</v>
+        <v>1.03123750587506</v>
       </c>
       <c r="L9">
-        <v>0.9770166156694534</v>
+        <v>1.015294509488359</v>
       </c>
       <c r="M9">
-        <v>0.936862550670806</v>
+        <v>1.035607864971838</v>
       </c>
       <c r="N9">
-        <v>0.9966649118055264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009114384807846</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036753617228792</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033177724342041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9401016284622354</v>
+        <v>0.9845176638471422</v>
       </c>
       <c r="D10">
-        <v>0.9731634176076283</v>
+        <v>1.012907380570028</v>
       </c>
       <c r="E10">
-        <v>0.9507959925733257</v>
+        <v>0.9946491735886841</v>
       </c>
       <c r="F10">
-        <v>0.9031211889829569</v>
+        <v>1.017376415094167</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024880291324957</v>
+        <v>1.041070984884982</v>
       </c>
       <c r="J10">
-        <v>0.9709112319093826</v>
+        <v>1.013359308494513</v>
       </c>
       <c r="K10">
-        <v>0.9880347307879866</v>
+        <v>1.02704743440503</v>
       </c>
       <c r="L10">
-        <v>0.9661143471119756</v>
+        <v>1.009115715634898</v>
       </c>
       <c r="M10">
-        <v>0.9194915676192044</v>
+        <v>1.031438863957255</v>
       </c>
       <c r="N10">
-        <v>0.9931361905797843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007143981859712</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033505858123443</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03023194742062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9338860999778124</v>
+        <v>0.9816503279815656</v>
       </c>
       <c r="D11">
-        <v>0.9688073785680723</v>
+        <v>1.01130917328863</v>
       </c>
       <c r="E11">
-        <v>0.9450841846240071</v>
+        <v>0.99218505128124</v>
       </c>
       <c r="F11">
-        <v>0.8942442069298668</v>
+        <v>1.016197020155919</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023340618856765</v>
+        <v>1.040725644839032</v>
       </c>
       <c r="J11">
-        <v>0.9662936370818015</v>
+        <v>1.011806913251376</v>
       </c>
       <c r="K11">
-        <v>0.9843425320608451</v>
+        <v>1.026020920757293</v>
       </c>
       <c r="L11">
-        <v>0.9611217642695566</v>
+        <v>1.007255866431467</v>
       </c>
       <c r="M11">
-        <v>0.9114800392284405</v>
+        <v>1.030819814807455</v>
       </c>
       <c r="N11">
-        <v>0.9915180380645241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006720663114262</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033454700215711</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029539226651217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.931520643304349</v>
+        <v>0.9809148874954318</v>
       </c>
       <c r="D12">
-        <v>0.967151622294199</v>
+        <v>1.011025324225086</v>
       </c>
       <c r="E12">
-        <v>0.9429122997663755</v>
+        <v>0.9915978482879574</v>
       </c>
       <c r="F12">
-        <v>0.890853887203192</v>
+        <v>1.016212855178048</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0227524621358</v>
+        <v>1.040755103925026</v>
       </c>
       <c r="J12">
-        <v>0.9645351470251526</v>
+        <v>1.011549516945795</v>
       </c>
       <c r="K12">
-        <v>0.9829364154755161</v>
+        <v>1.025944301471974</v>
       </c>
       <c r="L12">
-        <v>0.9592215082875479</v>
+        <v>1.006887810242235</v>
       </c>
       <c r="M12">
-        <v>0.9084203632602439</v>
+        <v>1.031035897460135</v>
       </c>
       <c r="N12">
-        <v>0.9909018577448145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006738727531203</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03395365050142</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029485053593566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9320307216934546</v>
+        <v>0.9818014687858176</v>
       </c>
       <c r="D13">
-        <v>0.9675085662681505</v>
+        <v>1.011762460339081</v>
       </c>
       <c r="E13">
-        <v>0.9433805501836967</v>
+        <v>0.9924432401732265</v>
       </c>
       <c r="F13">
-        <v>0.8915855438467492</v>
+        <v>1.017182636825846</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022879387164528</v>
+        <v>1.041093280143257</v>
       </c>
       <c r="J13">
-        <v>0.9649143934362742</v>
+        <v>1.012300983614884</v>
       </c>
       <c r="K13">
-        <v>0.9832396664110056</v>
+        <v>1.026624437992006</v>
       </c>
       <c r="L13">
-        <v>0.9596312812551292</v>
+        <v>1.007672136105893</v>
       </c>
       <c r="M13">
-        <v>0.9090806555844886</v>
+        <v>1.031944931448871</v>
       </c>
       <c r="N13">
-        <v>0.9910347435360728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007111842947352</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034950204068332</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029963428762759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9336917680478756</v>
+        <v>0.9831547848931714</v>
       </c>
       <c r="D14">
-        <v>0.9686713083101322</v>
+        <v>1.012739877643294</v>
       </c>
       <c r="E14">
-        <v>0.9449057166584724</v>
+        <v>0.9936822052718457</v>
       </c>
       <c r="F14">
-        <v>0.8939659351195298</v>
+        <v>1.01829120115859</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023292343150657</v>
+        <v>1.041469013124797</v>
       </c>
       <c r="J14">
-        <v>0.9661491933416165</v>
+        <v>1.013282215226597</v>
       </c>
       <c r="K14">
-        <v>0.9842270325325954</v>
+        <v>1.02744213155651</v>
       </c>
       <c r="L14">
-        <v>0.9609656545028021</v>
+        <v>1.008741384338346</v>
       </c>
       <c r="M14">
-        <v>0.9112289025009792</v>
+        <v>1.032892751643717</v>
       </c>
       <c r="N14">
-        <v>0.9914674231416118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007533321647494</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03587330867618</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03054300651647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9347074701217961</v>
+        <v>0.9838460490925679</v>
       </c>
       <c r="D15">
-        <v>0.9693825822604987</v>
+        <v>1.013211210963273</v>
       </c>
       <c r="E15">
-        <v>0.9458385803142842</v>
+        <v>0.9943052900015447</v>
       </c>
       <c r="F15">
-        <v>0.8954198601127699</v>
+        <v>1.018787540377148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023544574204378</v>
+        <v>1.04163315263099</v>
       </c>
       <c r="J15">
-        <v>0.9669041010604175</v>
+        <v>1.013751380863863</v>
       </c>
       <c r="K15">
-        <v>0.9848306680612751</v>
+        <v>1.027817642745988</v>
       </c>
       <c r="L15">
-        <v>0.9617815748324686</v>
+        <v>1.009262875402605</v>
       </c>
       <c r="M15">
-        <v>0.9125410568770458</v>
+        <v>1.033293630707324</v>
       </c>
       <c r="N15">
-        <v>0.9917319548284066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007717962457942</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036227799753273</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030814415483081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9405065436495553</v>
+        <v>0.9872830469293953</v>
       </c>
       <c r="D16">
-        <v>0.9734474549605856</v>
+        <v>1.015419261279127</v>
       </c>
       <c r="E16">
-        <v>0.9511683405311014</v>
+        <v>0.9973589827748708</v>
       </c>
       <c r="F16">
-        <v>0.9036979700454165</v>
+        <v>1.020965348120709</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024980285860007</v>
+        <v>1.042311340331755</v>
       </c>
       <c r="J16">
-        <v>0.9712118879807469</v>
+        <v>1.015932028976828</v>
       </c>
       <c r="K16">
-        <v>0.9882751206332003</v>
+        <v>1.029479710372178</v>
       </c>
       <c r="L16">
-        <v>0.9664395590289606</v>
+        <v>1.011739267394553</v>
       </c>
       <c r="M16">
-        <v>0.9200121177943473</v>
+        <v>1.034930513038475</v>
       </c>
       <c r="N16">
-        <v>0.9932415536702285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008484652196009</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037482773368801</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031992747218012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9440500903707093</v>
+        <v>0.9892114159238394</v>
       </c>
       <c r="D17">
-        <v>0.9759344667906089</v>
+        <v>1.016602358206086</v>
       </c>
       <c r="E17">
-        <v>0.954428181897617</v>
+        <v>0.9990547278627396</v>
       </c>
       <c r="F17">
-        <v>0.908738040067092</v>
+        <v>1.022051045548782</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025853649345778</v>
+        <v>1.042632503700383</v>
       </c>
       <c r="J17">
-        <v>0.9738421459763201</v>
+        <v>1.017090591061115</v>
       </c>
       <c r="K17">
-        <v>0.9903780328281556</v>
+        <v>1.030325418055659</v>
       </c>
       <c r="L17">
-        <v>0.9692853907380149</v>
+        <v>1.01307935144822</v>
       </c>
       <c r="M17">
-        <v>0.9245607639273855</v>
+        <v>1.035683179766869</v>
       </c>
       <c r="N17">
-        <v>0.9941633116034136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00885191301067</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037948358018719</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032593296615683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9460850199778962</v>
+        <v>0.9900027545355161</v>
       </c>
       <c r="D18">
-        <v>0.9773637028318862</v>
+        <v>1.016982811802777</v>
       </c>
       <c r="E18">
-        <v>0.9563012490784651</v>
+        <v>0.9997156099086664</v>
       </c>
       <c r="F18">
-        <v>0.9116264358710718</v>
+        <v>1.022241095216404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026353737499967</v>
+        <v>1.042662235051425</v>
       </c>
       <c r="J18">
-        <v>0.9753518680849104</v>
+        <v>1.017448839649516</v>
       </c>
       <c r="K18">
-        <v>0.9915849530541628</v>
+        <v>1.030514700247555</v>
       </c>
       <c r="L18">
-        <v>0.970919466097913</v>
+        <v>1.013539254102257</v>
       </c>
       <c r="M18">
-        <v>0.9271674450815878</v>
+        <v>1.035686652831227</v>
       </c>
       <c r="N18">
-        <v>0.9946923752390476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008895494069097</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03771277384812</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032715433192434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9467736285189525</v>
+        <v>0.9898019990347194</v>
       </c>
       <c r="D19">
-        <v>0.9778475149532779</v>
+        <v>1.016673604390303</v>
       </c>
       <c r="E19">
-        <v>0.9569352599187776</v>
+        <v>0.9994754564454326</v>
       </c>
       <c r="F19">
-        <v>0.9126029028160915</v>
+        <v>1.021640415541416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026522714581333</v>
+        <v>1.042451069826763</v>
       </c>
       <c r="J19">
-        <v>0.9758626231864788</v>
+        <v>1.017118972318479</v>
       </c>
       <c r="K19">
-        <v>0.9919932440724338</v>
+        <v>1.030147570829201</v>
       </c>
       <c r="L19">
-        <v>0.9714723950323949</v>
+        <v>1.013238658258872</v>
       </c>
       <c r="M19">
-        <v>0.928048653652952</v>
+        <v>1.03503317889834</v>
       </c>
       <c r="N19">
-        <v>0.9948713599283361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008672679070736</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036869489990685</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032462286601089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9436732486802384</v>
+        <v>0.9867842066245397</v>
       </c>
       <c r="D20">
-        <v>0.9756698733165463</v>
+        <v>1.014400858697171</v>
       </c>
       <c r="E20">
-        <v>0.9540813999124175</v>
+        <v>0.9966762823501388</v>
       </c>
       <c r="F20">
-        <v>0.9082026804007926</v>
+        <v>1.018850024660643</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025760921026263</v>
+        <v>1.041551105132863</v>
       </c>
       <c r="J20">
-        <v>0.973562505510255</v>
+        <v>1.014834255492324</v>
       </c>
       <c r="K20">
-        <v>0.9901544691210679</v>
+        <v>1.02819512620297</v>
       </c>
       <c r="L20">
-        <v>0.9689827666485814</v>
+        <v>1.010777828189075</v>
       </c>
       <c r="M20">
-        <v>0.9240776112234378</v>
+        <v>1.032569323996643</v>
       </c>
       <c r="N20">
-        <v>0.9940653138798325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007687138126711</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034389891155302</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031085775511388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9332042531891213</v>
+        <v>0.9801915097371454</v>
       </c>
       <c r="D21">
-        <v>0.9683299865968005</v>
+        <v>1.010069692682355</v>
       </c>
       <c r="E21">
-        <v>0.9444580298190414</v>
+        <v>0.9907847597964045</v>
       </c>
       <c r="F21">
-        <v>0.8932676420027065</v>
+        <v>1.014472616576302</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023171200409458</v>
+        <v>1.040154113503831</v>
       </c>
       <c r="J21">
-        <v>0.9657868129451469</v>
+        <v>1.010541413338602</v>
       </c>
       <c r="K21">
-        <v>0.9839372672077411</v>
+        <v>1.024862770369106</v>
       </c>
       <c r="L21">
-        <v>0.9605740231995715</v>
+        <v>1.005942846494923</v>
       </c>
       <c r="M21">
-        <v>0.9105987045089229</v>
+        <v>1.029184892144296</v>
       </c>
       <c r="N21">
-        <v>0.9913404414718988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006110314325381</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031670219995578</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028732916414123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9262897513369305</v>
+        <v>0.9759700944261606</v>
       </c>
       <c r="D22">
-        <v>0.9634942941996751</v>
+        <v>1.00731168432588</v>
       </c>
       <c r="E22">
-        <v>0.9381131037715158</v>
+        <v>0.9870241828743355</v>
       </c>
       <c r="F22">
-        <v>0.8833316039526982</v>
+        <v>1.01172195574955</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02144791270545</v>
+        <v>1.039256643263021</v>
       </c>
       <c r="J22">
-        <v>0.9606443523494417</v>
+        <v>1.00780245477261</v>
       </c>
       <c r="K22">
-        <v>0.97982536414805</v>
+        <v>1.022739673680833</v>
       </c>
       <c r="L22">
-        <v>0.9550190175647416</v>
+        <v>1.002857151576813</v>
       </c>
       <c r="M22">
-        <v>0.9016321871822407</v>
+        <v>1.027064720896237</v>
       </c>
       <c r="N22">
-        <v>0.9895386781067407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005107064546466</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029992223693719</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027218160732289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9299891492599548</v>
+        <v>0.978198164914139</v>
       </c>
       <c r="D23">
-        <v>0.9660802346252191</v>
+        <v>1.008759611968559</v>
       </c>
       <c r="E23">
-        <v>0.9415066793295815</v>
+        <v>0.9890062118902978</v>
       </c>
       <c r="F23">
-        <v>0.8886551582045118</v>
+        <v>1.013170216883746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022371061561501</v>
+        <v>1.039725003783475</v>
       </c>
       <c r="J23">
-        <v>0.9633963029399233</v>
+        <v>1.00924183913078</v>
       </c>
       <c r="K23">
-        <v>0.9820257845969345</v>
+        <v>1.023850674949507</v>
       </c>
       <c r="L23">
-        <v>0.9579911513081935</v>
+        <v>1.004480706173971</v>
       </c>
       <c r="M23">
-        <v>0.906436129463483</v>
+        <v>1.028178331117975</v>
       </c>
       <c r="N23">
-        <v>0.9905028256763616</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005630744821088</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030873584058042</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027993975743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9438436255294131</v>
+        <v>0.9867747853580878</v>
       </c>
       <c r="D24">
-        <v>0.9757894975468154</v>
+        <v>1.014359700134652</v>
       </c>
       <c r="E24">
-        <v>0.9542381829488528</v>
+        <v>0.9966567139088852</v>
       </c>
       <c r="F24">
-        <v>0.9084447443514679</v>
+        <v>1.01877505151502</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025802849680923</v>
+        <v>1.041517165874116</v>
       </c>
       <c r="J24">
-        <v>0.973688938253324</v>
+        <v>1.014791608592379</v>
       </c>
       <c r="K24">
-        <v>0.9902555484659099</v>
+        <v>1.028139250318639</v>
       </c>
       <c r="L24">
-        <v>0.9691195889677368</v>
+        <v>1.010742796885753</v>
       </c>
       <c r="M24">
-        <v>0.9242960699753618</v>
+        <v>1.032480287830835</v>
       </c>
       <c r="N24">
-        <v>0.994109621238053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007654353873989</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034278332344175</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031018685899703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9586807724778262</v>
+        <v>0.9962917961317069</v>
       </c>
       <c r="D25">
-        <v>0.9862258953664117</v>
+        <v>1.020599767770442</v>
       </c>
       <c r="E25">
-        <v>0.9679124978204933</v>
+        <v>1.005179378312877</v>
       </c>
       <c r="F25">
-        <v>0.9294171354486787</v>
+        <v>1.025043202517326</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029422625137639</v>
+        <v>1.043460189657183</v>
       </c>
       <c r="J25">
-        <v>0.9846834519875783</v>
+        <v>1.020944603836582</v>
       </c>
       <c r="K25">
-        <v>0.9990418674268581</v>
+        <v>1.032886498984676</v>
       </c>
       <c r="L25">
-        <v>0.9810302293384652</v>
+        <v>1.017697819678685</v>
       </c>
       <c r="M25">
-        <v>0.9432198011584652</v>
+        <v>1.037264807257247</v>
       </c>
       <c r="N25">
-        <v>0.9979618755327452</v>
+        <v>1.009893929827036</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038064981608202</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034372384373878</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00351472008121</v>
+        <v>1.003604062078698</v>
       </c>
       <c r="D2">
-        <v>1.025332850085109</v>
+        <v>1.024971514453958</v>
       </c>
       <c r="E2">
-        <v>1.011666703175035</v>
+        <v>1.011755451812891</v>
       </c>
       <c r="F2">
-        <v>1.029828831762993</v>
+        <v>1.029626461765537</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044878962994978</v>
+        <v>1.044810576283999</v>
       </c>
       <c r="J2">
-        <v>1.025590812276747</v>
+        <v>1.025677508048157</v>
       </c>
       <c r="K2">
-        <v>1.036450188676522</v>
+        <v>1.036093582160575</v>
       </c>
       <c r="L2">
-        <v>1.022965860301661</v>
+        <v>1.023053408275179</v>
       </c>
       <c r="M2">
-        <v>1.040887674847154</v>
+        <v>1.040687924068036</v>
       </c>
       <c r="N2">
-        <v>1.011572452958595</v>
+        <v>1.013436300163023</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04093224239508</v>
+        <v>1.040774153123726</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036843698640793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036600339523162</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021441155223275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008625025077379</v>
+        <v>1.008342077055582</v>
       </c>
       <c r="D3">
-        <v>1.028700781991056</v>
+        <v>1.027979618258979</v>
       </c>
       <c r="E3">
-        <v>1.016272404163763</v>
+        <v>1.015991009728435</v>
       </c>
       <c r="F3">
-        <v>1.033236594523651</v>
+        <v>1.032755880731168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045869396429616</v>
+        <v>1.045640732727794</v>
       </c>
       <c r="J3">
-        <v>1.028883293203507</v>
+        <v>1.028607883409065</v>
       </c>
       <c r="K3">
-        <v>1.038979142895727</v>
+        <v>1.038266586407691</v>
       </c>
       <c r="L3">
-        <v>1.026701225607337</v>
+        <v>1.026423290803956</v>
       </c>
       <c r="M3">
-        <v>1.043461160646198</v>
+        <v>1.042986120398873</v>
       </c>
       <c r="N3">
-        <v>1.01276485753315</v>
+        <v>1.014273029139056</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04296897977142</v>
+        <v>1.042593018450994</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038629230431305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038133899477688</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021941974818435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011860730956488</v>
+        <v>1.01134620462305</v>
       </c>
       <c r="D4">
-        <v>1.030836826127968</v>
+        <v>1.029890517298581</v>
       </c>
       <c r="E4">
-        <v>1.019194377965329</v>
+        <v>1.018682316882109</v>
       </c>
       <c r="F4">
-        <v>1.035402368788051</v>
+        <v>1.034747830742581</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046485622108504</v>
+        <v>1.046156665658142</v>
       </c>
       <c r="J4">
-        <v>1.030965828317755</v>
+        <v>1.030464059990364</v>
       </c>
       <c r="K4">
-        <v>1.040576795315346</v>
+        <v>1.039641093357598</v>
       </c>
       <c r="L4">
-        <v>1.029066534340316</v>
+        <v>1.028560372809771</v>
       </c>
       <c r="M4">
-        <v>1.045091499276685</v>
+        <v>1.044444215830976</v>
       </c>
       <c r="N4">
-        <v>1.013518009214257</v>
+        <v>1.014802520413078</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044259277943752</v>
+        <v>1.043746998969454</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039759809165355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039106772639994</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022256085497885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01321054258694</v>
+        <v>1.012600118679714</v>
       </c>
       <c r="D5">
-        <v>1.031730922178607</v>
+        <v>1.030691186526156</v>
       </c>
       <c r="E5">
-        <v>1.020415193743328</v>
+        <v>1.01980752126201</v>
       </c>
       <c r="F5">
-        <v>1.036308413618925</v>
+        <v>1.035581801002853</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046742000422076</v>
+        <v>1.0463713624942</v>
       </c>
       <c r="J5">
-        <v>1.03183596147134</v>
+        <v>1.031240210655203</v>
       </c>
       <c r="K5">
-        <v>1.041245502312819</v>
+        <v>1.040217107623796</v>
       </c>
       <c r="L5">
-        <v>1.030054730315989</v>
+        <v>1.029453864772268</v>
       </c>
       <c r="M5">
-        <v>1.045773396361121</v>
+        <v>1.045054620740635</v>
       </c>
       <c r="N5">
-        <v>1.013833354442632</v>
+        <v>1.015024465480284</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044798950771588</v>
+        <v>1.044230091205705</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040239811083943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039521941625845</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022387751878315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013443373958593</v>
+        <v>1.012816177129279</v>
       </c>
       <c r="D6">
-        <v>1.031887906426837</v>
+        <v>1.030831938132117</v>
       </c>
       <c r="E6">
-        <v>1.020626502342488</v>
+        <v>1.020002102913198</v>
       </c>
       <c r="F6">
-        <v>1.036465655281801</v>
+        <v>1.035726500020141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046788479231438</v>
+        <v>1.046410519346868</v>
       </c>
       <c r="J6">
-        <v>1.031988383775822</v>
+        <v>1.031376183777553</v>
       </c>
       <c r="K6">
-        <v>1.041364620526776</v>
+        <v>1.040320116939886</v>
       </c>
       <c r="L6">
-        <v>1.0302269858533</v>
+        <v>1.029609547325223</v>
       </c>
       <c r="M6">
-        <v>1.045892999535031</v>
+        <v>1.045161779667475</v>
       </c>
       <c r="N6">
-        <v>1.01388970725574</v>
+        <v>1.015064157815857</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044893608098302</v>
+        <v>1.044314899870665</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040332778557254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039604386622162</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022412090756821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011898143385342</v>
+        <v>1.011392996521733</v>
       </c>
       <c r="D7">
-        <v>1.030868905133539</v>
+        <v>1.02992888346029</v>
       </c>
       <c r="E7">
-        <v>1.019229963078475</v>
+        <v>1.018727234279982</v>
       </c>
       <c r="F7">
-        <v>1.035429743769014</v>
+        <v>1.034780682377321</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046499266786158</v>
+        <v>1.046173349198531</v>
       </c>
       <c r="J7">
-        <v>1.03099633256248</v>
+        <v>1.030503705159965</v>
       </c>
       <c r="K7">
-        <v>1.040605633835073</v>
+        <v>1.039676144163325</v>
       </c>
       <c r="L7">
-        <v>1.029098784282136</v>
+        <v>1.028601845015344</v>
       </c>
       <c r="M7">
-        <v>1.045115706667342</v>
+        <v>1.044473836264733</v>
       </c>
       <c r="N7">
-        <v>1.013532156448469</v>
+        <v>1.014843022491462</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044278436370908</v>
+        <v>1.043770441451423</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.0398003115256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039153664094686</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022267450567951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005281629488619</v>
+        <v>1.005280190737563</v>
       </c>
       <c r="D8">
-        <v>1.026505734235996</v>
+        <v>1.026048057970256</v>
       </c>
       <c r="E8">
-        <v>1.013260193808002</v>
+        <v>1.013258764036971</v>
       </c>
       <c r="F8">
-        <v>1.031008222453371</v>
+        <v>1.030733235260563</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045231901164782</v>
+        <v>1.045121842778649</v>
       </c>
       <c r="J8">
-        <v>1.026737724420665</v>
+        <v>1.026736326806799</v>
       </c>
       <c r="K8">
-        <v>1.0373382501006</v>
+        <v>1.03688638312913</v>
       </c>
       <c r="L8">
-        <v>1.024263493831758</v>
+        <v>1.024262082797765</v>
       </c>
       <c r="M8">
-        <v>1.041783931037578</v>
+        <v>1.041512395574061</v>
       </c>
       <c r="N8">
-        <v>1.011992139894531</v>
+        <v>1.013823958623961</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041641568304349</v>
+        <v>1.041426666498633</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037494583337154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037186124571156</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02163080703723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.993014703304621</v>
+        <v>0.9939412486233984</v>
       </c>
       <c r="D9">
-        <v>1.018436632339329</v>
+        <v>1.018865495645792</v>
       </c>
       <c r="E9">
-        <v>1.002237632284149</v>
+        <v>1.003155672540657</v>
       </c>
       <c r="F9">
-        <v>1.022875333469522</v>
+        <v>1.023288718846074</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042786865508618</v>
+        <v>1.043072172392611</v>
       </c>
       <c r="J9">
-        <v>1.018816564940437</v>
+        <v>1.019709786216189</v>
       </c>
       <c r="K9">
-        <v>1.03123750587506</v>
+        <v>1.031659732846481</v>
       </c>
       <c r="L9">
-        <v>1.015294509488359</v>
+        <v>1.016197757803637</v>
       </c>
       <c r="M9">
-        <v>1.035607864971838</v>
+        <v>1.036014924010874</v>
       </c>
       <c r="N9">
-        <v>1.009114384807846</v>
+        <v>1.011823151579431</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036753617228792</v>
+        <v>1.037075778778657</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033177724342041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033487061975698</v>
+      </c>
+      <c r="S9">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T9">
+        <v>1.020409410835586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9845176638471422</v>
+        <v>0.9861642110239757</v>
       </c>
       <c r="D10">
-        <v>1.012907380570028</v>
+        <v>1.014003138170636</v>
       </c>
       <c r="E10">
-        <v>0.9946491735886841</v>
+        <v>0.9962769119936452</v>
       </c>
       <c r="F10">
-        <v>1.017376415094167</v>
+        <v>1.018312568935565</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041070984884982</v>
+        <v>1.041654205901647</v>
       </c>
       <c r="J10">
-        <v>1.013359308494513</v>
+        <v>1.014937732342022</v>
       </c>
       <c r="K10">
-        <v>1.02704743440503</v>
+        <v>1.02812408217454</v>
       </c>
       <c r="L10">
-        <v>1.009115715634898</v>
+        <v>1.010713714897704</v>
       </c>
       <c r="M10">
-        <v>1.031438863957255</v>
+        <v>1.03235887302603</v>
       </c>
       <c r="N10">
-        <v>1.007143981859712</v>
+        <v>1.010590626739374</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033505858123443</v>
+        <v>1.034233944492394</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03023194742062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031005697944375</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019585065045654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9816503279815656</v>
+        <v>0.983550067953268</v>
       </c>
       <c r="D11">
-        <v>1.01130917328863</v>
+        <v>1.012625854054912</v>
       </c>
       <c r="E11">
-        <v>0.99218505128124</v>
+        <v>0.9940611865279071</v>
       </c>
       <c r="F11">
-        <v>1.016197020155919</v>
+        <v>1.017309079320903</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040725644839032</v>
+        <v>1.041396771233182</v>
       </c>
       <c r="J11">
-        <v>1.011806913251376</v>
+        <v>1.01362356517131</v>
       </c>
       <c r="K11">
-        <v>1.026020920757293</v>
+        <v>1.027313529549239</v>
       </c>
       <c r="L11">
-        <v>1.007255866431467</v>
+        <v>1.009095975996135</v>
       </c>
       <c r="M11">
-        <v>1.030819814807455</v>
+        <v>1.03191179101552</v>
       </c>
       <c r="N11">
-        <v>1.006720663114262</v>
+        <v>1.010548903467847</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033454700215711</v>
+        <v>1.034318440596594</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029539226651217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030468865364124</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019481389052018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9809148874954318</v>
+        <v>0.9828508070082626</v>
       </c>
       <c r="D12">
-        <v>1.011025324225086</v>
+        <v>1.012370516102391</v>
       </c>
       <c r="E12">
-        <v>0.9915978482879574</v>
+        <v>0.9935090061797068</v>
       </c>
       <c r="F12">
-        <v>1.016212855178048</v>
+        <v>1.017348124626268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040755103925026</v>
+        <v>1.041428424146827</v>
       </c>
       <c r="J12">
-        <v>1.011549516945795</v>
+        <v>1.013399111987183</v>
       </c>
       <c r="K12">
-        <v>1.025944301471974</v>
+        <v>1.027264493074512</v>
       </c>
       <c r="L12">
-        <v>1.006887810242235</v>
+        <v>1.008761628988603</v>
       </c>
       <c r="M12">
-        <v>1.031035897460135</v>
+        <v>1.032150341859144</v>
       </c>
       <c r="N12">
-        <v>1.006738727531203</v>
+        <v>1.010664102909536</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03395365050142</v>
+        <v>1.03483486178589</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029485053593566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030434195330858</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019532422634852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9818014687858176</v>
+        <v>0.9835842915430977</v>
       </c>
       <c r="D13">
-        <v>1.011762460339081</v>
+        <v>1.012971353879962</v>
       </c>
       <c r="E13">
-        <v>0.9924432401732265</v>
+        <v>0.9942034646671666</v>
       </c>
       <c r="F13">
-        <v>1.017182636825846</v>
+        <v>1.018209759939644</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041093280143257</v>
+        <v>1.041694226861172</v>
       </c>
       <c r="J13">
-        <v>1.012300983614884</v>
+        <v>1.014004787627421</v>
       </c>
       <c r="K13">
-        <v>1.026624437992006</v>
+        <v>1.027810978172237</v>
       </c>
       <c r="L13">
-        <v>1.007672136105893</v>
+        <v>1.009398155791335</v>
       </c>
       <c r="M13">
-        <v>1.031944931448871</v>
+        <v>1.032953320294125</v>
       </c>
       <c r="N13">
-        <v>1.007111842947352</v>
+        <v>1.010876626504765</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034950204068332</v>
+        <v>1.035747353566249</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029963428762759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030817823953325</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019711302479976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9831547848931714</v>
+        <v>0.9847468817908783</v>
       </c>
       <c r="D14">
-        <v>1.012739877643294</v>
+        <v>1.013780858546298</v>
       </c>
       <c r="E14">
-        <v>0.9936822052718457</v>
+        <v>0.9952545939047597</v>
       </c>
       <c r="F14">
-        <v>1.01829120115859</v>
+        <v>1.019184896731778</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041469013124797</v>
+        <v>1.041986996494215</v>
       </c>
       <c r="J14">
-        <v>1.013282215226597</v>
+        <v>1.014804852595512</v>
       </c>
       <c r="K14">
-        <v>1.02744213155651</v>
+        <v>1.028464119271771</v>
       </c>
       <c r="L14">
-        <v>1.008741384338346</v>
+        <v>1.010283647117643</v>
       </c>
       <c r="M14">
-        <v>1.032892751643717</v>
+        <v>1.033770368401189</v>
       </c>
       <c r="N14">
-        <v>1.007533321647494</v>
+        <v>1.011071391310133</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03587330867618</v>
+        <v>1.036566986521265</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03054300651647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03128118299126</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019895048956288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9838460490925679</v>
+        <v>0.9853511944789567</v>
       </c>
       <c r="D15">
-        <v>1.013211210963273</v>
+        <v>1.014175972024567</v>
       </c>
       <c r="E15">
-        <v>0.9943052900015447</v>
+        <v>0.9957920655422462</v>
       </c>
       <c r="F15">
-        <v>1.018787540377148</v>
+        <v>1.019620617662357</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04163315263099</v>
+        <v>1.042115133886887</v>
       </c>
       <c r="J15">
-        <v>1.013751380863863</v>
+        <v>1.015191475371191</v>
       </c>
       <c r="K15">
-        <v>1.027817642745988</v>
+        <v>1.028764941086339</v>
       </c>
       <c r="L15">
-        <v>1.009262875402605</v>
+        <v>1.01072140439234</v>
       </c>
       <c r="M15">
-        <v>1.033293630707324</v>
+        <v>1.034111839783623</v>
       </c>
       <c r="N15">
-        <v>1.007717962457942</v>
+        <v>1.011147042019171</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036227799753273</v>
+        <v>1.036874504110943</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030814415483081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031500345502413</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019971840319086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9872830469293953</v>
+        <v>0.9884202125225492</v>
       </c>
       <c r="D16">
-        <v>1.015419261279127</v>
+        <v>1.016060079997191</v>
       </c>
       <c r="E16">
-        <v>0.9973589827748708</v>
+        <v>0.998483364226792</v>
       </c>
       <c r="F16">
-        <v>1.020965348120709</v>
+        <v>1.021541071215225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042311340331755</v>
+        <v>1.042649224253249</v>
       </c>
       <c r="J16">
-        <v>1.015932028976828</v>
+        <v>1.01702263529006</v>
       </c>
       <c r="K16">
-        <v>1.029479710372178</v>
+        <v>1.030109450796967</v>
       </c>
       <c r="L16">
-        <v>1.011739267394553</v>
+        <v>1.01284329765825</v>
       </c>
       <c r="M16">
-        <v>1.034930513038475</v>
+        <v>1.035496421510734</v>
       </c>
       <c r="N16">
-        <v>1.008484652196009</v>
+        <v>1.011437005560324</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037482773368801</v>
+        <v>1.03793007482966</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031992747218012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03245443817456</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020272096104479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9892114159238394</v>
+        <v>0.9901822473117202</v>
       </c>
       <c r="D17">
-        <v>1.016602358206086</v>
+        <v>1.017094047349379</v>
       </c>
       <c r="E17">
-        <v>0.9990547278627396</v>
+        <v>1.000015203259376</v>
       </c>
       <c r="F17">
-        <v>1.022051045548782</v>
+        <v>1.022508882789918</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042632503700383</v>
+        <v>1.042908315274805</v>
       </c>
       <c r="J17">
-        <v>1.017090591061115</v>
+        <v>1.018023006392698</v>
       </c>
       <c r="K17">
-        <v>1.030325418055659</v>
+        <v>1.030808850522969</v>
       </c>
       <c r="L17">
-        <v>1.01307935144822</v>
+        <v>1.014022965912716</v>
       </c>
       <c r="M17">
-        <v>1.035683179766869</v>
+        <v>1.036133433602467</v>
       </c>
       <c r="N17">
-        <v>1.00885191301067</v>
+        <v>1.011589662648389</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037948358018719</v>
+        <v>1.038304280200161</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032593296615683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03295178336515</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020408791152539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9900027545355161</v>
+        <v>0.9909472699553693</v>
       </c>
       <c r="D18">
-        <v>1.016982811802777</v>
+        <v>1.01744914529956</v>
       </c>
       <c r="E18">
-        <v>0.9997156099086664</v>
+        <v>1.00065034777321</v>
       </c>
       <c r="F18">
-        <v>1.022241095216404</v>
+        <v>1.022679147740075</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042662235051425</v>
+        <v>1.042934780344944</v>
       </c>
       <c r="J18">
-        <v>1.017448839649516</v>
+        <v>1.018356695585047</v>
       </c>
       <c r="K18">
-        <v>1.030514700247555</v>
+        <v>1.030973331052086</v>
       </c>
       <c r="L18">
-        <v>1.013539254102257</v>
+        <v>1.01445786480224</v>
       </c>
       <c r="M18">
-        <v>1.035686652831227</v>
+        <v>1.03611756485091</v>
       </c>
       <c r="N18">
-        <v>1.008895494069097</v>
+        <v>1.011585485202175</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03771277384812</v>
+        <v>1.038053477833888</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032715433192434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033055254662402</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020402123585378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9898019990347194</v>
+        <v>0.9908284263396854</v>
       </c>
       <c r="D19">
-        <v>1.016673604390303</v>
+        <v>1.017212530191359</v>
       </c>
       <c r="E19">
-        <v>0.9994754564454326</v>
+        <v>1.000491347724227</v>
       </c>
       <c r="F19">
-        <v>1.021640415541416</v>
+        <v>1.022135923041167</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042451069826763</v>
+        <v>1.042766123839148</v>
       </c>
       <c r="J19">
-        <v>1.017118972318479</v>
+        <v>1.018105776448363</v>
       </c>
       <c r="K19">
-        <v>1.030147570829201</v>
+        <v>1.030677636333045</v>
       </c>
       <c r="L19">
-        <v>1.013238658258872</v>
+        <v>1.014237107330819</v>
       </c>
       <c r="M19">
-        <v>1.03503317889834</v>
+        <v>1.035520640876277</v>
       </c>
       <c r="N19">
-        <v>1.008672679070736</v>
+        <v>1.011434249043759</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036869489990685</v>
+        <v>1.037255032375227</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032462286601089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032853239233481</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020276532982973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9867842066245397</v>
+        <v>0.9881958910217843</v>
       </c>
       <c r="D20">
-        <v>1.014400858697171</v>
+        <v>1.015287136533072</v>
       </c>
       <c r="E20">
-        <v>0.9966762823501388</v>
+        <v>0.9980726867336146</v>
       </c>
       <c r="F20">
-        <v>1.018850024660643</v>
+        <v>1.019620065036977</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041551105132863</v>
+        <v>1.042038257387634</v>
       </c>
       <c r="J20">
-        <v>1.014834255492324</v>
+        <v>1.016189549032145</v>
       </c>
       <c r="K20">
-        <v>1.02819512620297</v>
+        <v>1.029066402692976</v>
       </c>
       <c r="L20">
-        <v>1.010777828189075</v>
+        <v>1.012149510491405</v>
       </c>
       <c r="M20">
-        <v>1.032569323996643</v>
+        <v>1.033326474831629</v>
       </c>
       <c r="N20">
-        <v>1.007687138126711</v>
+        <v>1.010849457567182</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034389891155302</v>
+        <v>1.03498910015984</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031085775511388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031718378865971</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01980895387523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9801915097371454</v>
+        <v>0.9823752418676631</v>
       </c>
       <c r="D21">
-        <v>1.010069692682355</v>
+        <v>1.0116359782875</v>
       </c>
       <c r="E21">
-        <v>0.9907847597964045</v>
+        <v>0.9929409955758407</v>
       </c>
       <c r="F21">
-        <v>1.014472616576302</v>
+        <v>1.015784532619965</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040154113503831</v>
+        <v>1.040956342929159</v>
       </c>
       <c r="J21">
-        <v>1.010541413338602</v>
+        <v>1.012628786853609</v>
       </c>
       <c r="K21">
-        <v>1.024862770369106</v>
+        <v>1.026400206620919</v>
       </c>
       <c r="L21">
-        <v>1.005942846494923</v>
+        <v>1.008057348527466</v>
       </c>
       <c r="M21">
-        <v>1.029184892144296</v>
+        <v>1.030472908251302</v>
       </c>
       <c r="N21">
-        <v>1.006110314325381</v>
+        <v>1.010265420484853</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031670219995578</v>
+        <v>1.032689610332981</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028732916414123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029836869354384</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019185517627353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9759700944261606</v>
+        <v>0.9786527712319975</v>
       </c>
       <c r="D22">
-        <v>1.00731168432588</v>
+        <v>1.009317594820495</v>
       </c>
       <c r="E22">
-        <v>0.9870241828743355</v>
+        <v>0.9896699024727693</v>
       </c>
       <c r="F22">
-        <v>1.01172195574955</v>
+        <v>1.01338445362504</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039256643263021</v>
+        <v>1.040263074874866</v>
       </c>
       <c r="J22">
-        <v>1.00780245477261</v>
+        <v>1.010359374712316</v>
       </c>
       <c r="K22">
-        <v>1.022739673680833</v>
+        <v>1.024706700914367</v>
       </c>
       <c r="L22">
-        <v>1.002857151576813</v>
+        <v>1.005448816309861</v>
       </c>
       <c r="M22">
-        <v>1.027064720896237</v>
+        <v>1.028695344562366</v>
       </c>
       <c r="N22">
-        <v>1.005107064546466</v>
+        <v>1.009889751307131</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029992223693719</v>
+        <v>1.031282770976394</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027218160732289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028624585218173</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018790199581524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.978198164914139</v>
+        <v>0.9805946401959742</v>
       </c>
       <c r="D23">
-        <v>1.008759611968559</v>
+        <v>1.010515576570948</v>
       </c>
       <c r="E23">
-        <v>0.9890062118902978</v>
+        <v>0.9913711916258124</v>
       </c>
       <c r="F23">
-        <v>1.013170216883746</v>
+        <v>1.014632739585924</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039725003783475</v>
+        <v>1.040614695865711</v>
       </c>
       <c r="J23">
-        <v>1.00924183913078</v>
+        <v>1.011529490223977</v>
       </c>
       <c r="K23">
-        <v>1.023850674949507</v>
+        <v>1.025573502392635</v>
       </c>
       <c r="L23">
-        <v>1.004480706173971</v>
+        <v>1.006798721570588</v>
       </c>
       <c r="M23">
-        <v>1.028178331117975</v>
+        <v>1.029613556380895</v>
       </c>
       <c r="N23">
-        <v>1.005630744821088</v>
+        <v>1.010034184195229</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030873584058042</v>
+        <v>1.032009483139096</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027993975743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029226798772899</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018987965797522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9867747853580878</v>
+        <v>0.9881958868553059</v>
       </c>
       <c r="D24">
-        <v>1.014359700134652</v>
+        <v>1.015254052722751</v>
       </c>
       <c r="E24">
-        <v>0.9966567139088852</v>
+        <v>0.9980624665836635</v>
       </c>
       <c r="F24">
-        <v>1.01877505151502</v>
+        <v>1.019551592687324</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041517165874116</v>
+        <v>1.042009581091538</v>
       </c>
       <c r="J24">
-        <v>1.014791608592379</v>
+        <v>1.016156022301668</v>
       </c>
       <c r="K24">
-        <v>1.028139250318639</v>
+        <v>1.029018482893255</v>
       </c>
       <c r="L24">
-        <v>1.010742796885753</v>
+        <v>1.012123693130099</v>
       </c>
       <c r="M24">
-        <v>1.032480287830835</v>
+        <v>1.033243844958132</v>
       </c>
       <c r="N24">
-        <v>1.007654353873989</v>
+        <v>1.010824099654923</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034278332344175</v>
+        <v>1.034882641632336</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031018685899703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031654262639969</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01978699879127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9962917961317069</v>
+        <v>0.9969480623007524</v>
       </c>
       <c r="D25">
-        <v>1.020599767770442</v>
+        <v>1.020775967140688</v>
       </c>
       <c r="E25">
-        <v>1.005179378312877</v>
+        <v>1.005830151058243</v>
       </c>
       <c r="F25">
-        <v>1.025043202517326</v>
+        <v>1.02525912492039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043460189657183</v>
+        <v>1.043631746895633</v>
       </c>
       <c r="J25">
-        <v>1.020944603836582</v>
+        <v>1.021578574666909</v>
       </c>
       <c r="K25">
-        <v>1.032886498984676</v>
+        <v>1.033060102127472</v>
       </c>
       <c r="L25">
-        <v>1.017697819678685</v>
+        <v>1.018338630632398</v>
       </c>
       <c r="M25">
-        <v>1.037264807257247</v>
+        <v>1.037477583175302</v>
       </c>
       <c r="N25">
-        <v>1.009893929827036</v>
+        <v>1.012327659512735</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038064981608202</v>
+        <v>1.038233380032708</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034372384373878</v>
+        <v>1.034508708773056</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02074140399803</v>
       </c>
     </row>
   </sheetData>
